--- a/EaseMyTrip/src/test/resources/objectrepository/FlightDetails.xlsx
+++ b/EaseMyTrip/src/test/resources/objectrepository/FlightDetails.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/savithaselvaraj/eclipse-workspace/ExcelSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/savithaselvaraj/git/EaseMyTrip/EaseMyTrip/src/test/resources/objectrepository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195ADED3-C76B-8147-ADF0-A9D74E814A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2566AEF2-2B7B-6540-8D8C-B8E002A26774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15520" xr2:uid="{D3F5C180-57E5-144C-A0BD-109FA2060A8F}"/>
+    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15520" activeTab="1" xr2:uid="{D3F5C180-57E5-144C-A0BD-109FA2060A8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,80 +35,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
-    <t>Date of Travel</t>
-  </si>
-  <si>
-    <t>Month of Travel</t>
-  </si>
-  <si>
-    <t>Start Time</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Flight Name</t>
   </si>
   <si>
-    <t>MUM</t>
-  </si>
-  <si>
-    <t>MAA</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>Adults</t>
-  </si>
-  <si>
-    <t>Go First</t>
-  </si>
-  <si>
-    <t>18:40</t>
-  </si>
-  <si>
-    <t>Spicejet</t>
-  </si>
-  <si>
-    <t>20:25</t>
-  </si>
-  <si>
-    <t>AirAsia</t>
-  </si>
-  <si>
-    <t>20:10</t>
-  </si>
-  <si>
-    <t>IndiGo</t>
-  </si>
-  <si>
-    <t>20:00</t>
-  </si>
-  <si>
-    <t>18:30</t>
-  </si>
-  <si>
-    <t>Multi-Airline</t>
-  </si>
-  <si>
-    <t>19:25</t>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>APR</t>
+  </si>
+  <si>
+    <t>FROM</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>MONTH</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>DAY</t>
+  </si>
+  <si>
+    <t>ADULTS</t>
+  </si>
+  <si>
+    <t>CHILDREN</t>
+  </si>
+  <si>
+    <t>INFANTS</t>
+  </si>
+  <si>
+    <t>CLASS</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Prem.Economy</t>
+  </si>
+  <si>
+    <t>Depart</t>
+  </si>
+  <si>
+    <t>Arrive</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,8 +133,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,202 +450,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4524B536-E955-7442-B229-9C233E6B3060}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
+      <c r="D2" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E2" s="1">
         <v>25</v>
       </c>
-      <c r="E2">
-        <v>5</v>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EC1D6A-88F4-5749-9660-86CE9BB428A8}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D1" t="s">
         <v>18</v>
       </c>
     </row>

--- a/EaseMyTrip/src/test/resources/objectrepository/FlightDetails.xlsx
+++ b/EaseMyTrip/src/test/resources/objectrepository/FlightDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/savithaselvaraj/git/EaseMyTrip/EaseMyTrip/src/test/resources/objectrepository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2566AEF2-2B7B-6540-8D8C-B8E002A26774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16DADD6-8AE6-5448-8113-1B114997F1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15520" activeTab="1" xr2:uid="{D3F5C180-57E5-144C-A0BD-109FA2060A8F}"/>
+    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15520" xr2:uid="{D3F5C180-57E5-144C-A0BD-109FA2060A8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Flight Name</t>
   </si>
@@ -46,24 +46,12 @@
     <t>Chennai</t>
   </si>
   <si>
-    <t>APR</t>
-  </si>
-  <si>
     <t>FROM</t>
   </si>
   <si>
     <t>TO</t>
   </si>
   <si>
-    <t>MONTH</t>
-  </si>
-  <si>
-    <t>YEAR</t>
-  </si>
-  <si>
-    <t>DAY</t>
-  </si>
-  <si>
     <t>ADULTS</t>
   </si>
   <si>
@@ -92,6 +80,12 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>12/12/2022</t>
   </si>
 </sst>
 </file>
@@ -450,50 +444,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4524B536-E955-7442-B229-9C233E6B3060}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="2" max="3" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -501,25 +487,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E2" s="1">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -532,7 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EC1D6A-88F4-5749-9660-86CE9BB428A8}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -540,6 +520,9 @@
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -547,13 +530,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/EaseMyTrip/src/test/resources/objectrepository/FlightDetails.xlsx
+++ b/EaseMyTrip/src/test/resources/objectrepository/FlightDetails.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/savithaselvaraj/eclipse-workspace/ExcelSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/savithaselvaraj/git/EaseMyTrip/EaseMyTrip/src/test/resources/objectrepository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195ADED3-C76B-8147-ADF0-A9D74E814A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6C40D6-5C43-0840-AE4D-BFA8392E2620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15520" xr2:uid="{D3F5C180-57E5-144C-A0BD-109FA2060A8F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{D3F5C180-57E5-144C-A0BD-109FA2060A8F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Search" sheetId="1" r:id="rId1"/>
+    <sheet name="Flights" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="49">
   <si>
     <t>From</t>
   </si>
@@ -46,58 +46,142 @@
     <t>Date of Travel</t>
   </si>
   <si>
-    <t>Month of Travel</t>
-  </si>
-  <si>
-    <t>Start Time</t>
-  </si>
-  <si>
-    <t>Flight Name</t>
-  </si>
-  <si>
-    <t>MUM</t>
-  </si>
-  <si>
-    <t>MAA</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>Adults</t>
-  </si>
-  <si>
-    <t>Go First</t>
-  </si>
-  <si>
-    <t>18:40</t>
-  </si>
-  <si>
-    <t>Spicejet</t>
-  </si>
-  <si>
-    <t>20:25</t>
-  </si>
-  <si>
-    <t>AirAsia</t>
-  </si>
-  <si>
-    <t>20:10</t>
-  </si>
-  <si>
-    <t>IndiGo</t>
-  </si>
-  <si>
-    <t>20:00</t>
+    <t>3/14/2022</t>
+  </si>
+  <si>
+    <t>TravelClass</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Infant</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Prem.Economy</t>
+  </si>
+  <si>
+    <t>Flights</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Departure Time</t>
+  </si>
+  <si>
+    <t>Arrival time</t>
+  </si>
+  <si>
+    <t>Vistara</t>
+  </si>
+  <si>
+    <t>10:25</t>
+  </si>
+  <si>
+    <t>16:20</t>
+  </si>
+  <si>
+    <t>58,823</t>
+  </si>
+  <si>
+    <t>15:45</t>
+  </si>
+  <si>
+    <t>22:45</t>
+  </si>
+  <si>
+    <t>14:40</t>
+  </si>
+  <si>
+    <t>11:55</t>
+  </si>
+  <si>
+    <t>20:15</t>
+  </si>
+  <si>
+    <t>06:30</t>
+  </si>
+  <si>
+    <t>06:00</t>
+  </si>
+  <si>
+    <t>09:55</t>
+  </si>
+  <si>
+    <t>21:55</t>
+  </si>
+  <si>
+    <t>20:55</t>
+  </si>
+  <si>
+    <t>19:45</t>
   </si>
   <si>
     <t>18:30</t>
   </si>
   <si>
-    <t>Multi-Airline</t>
-  </si>
-  <si>
-    <t>19:25</t>
+    <t>17:35</t>
+  </si>
+  <si>
+    <t>08:45</t>
+  </si>
+  <si>
+    <t>65,981</t>
+  </si>
+  <si>
+    <t>11:30</t>
+  </si>
+  <si>
+    <t>85,762</t>
+  </si>
+  <si>
+    <t>12:15</t>
+  </si>
+  <si>
+    <t>90,462</t>
+  </si>
+  <si>
+    <t>10:45</t>
+  </si>
+  <si>
+    <t>90,907</t>
+  </si>
+  <si>
+    <t>13:20</t>
+  </si>
+  <si>
+    <t>94,077</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>97,842</t>
+  </si>
+  <si>
+    <t>19:10</t>
+  </si>
+  <si>
+    <t>07:00</t>
+  </si>
+  <si>
+    <t>98,402</t>
+  </si>
+  <si>
+    <t>09:05</t>
+  </si>
+  <si>
+    <t>98,962</t>
   </si>
 </sst>
 </file>
@@ -134,8 +218,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,19 +535,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4524B536-E955-7442-B229-9C233E6B3060}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="13.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="11.1640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="16.1640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.5" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,27 +560,39 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>25</v>
+      <c r="D2" t="s">
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -503,150 +602,661 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EC1D6A-88F4-5749-9660-86CE9BB428A8}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="16.33203125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/EaseMyTrip/src/test/resources/objectrepository/FlightDetails.xlsx
+++ b/EaseMyTrip/src/test/resources/objectrepository/FlightDetails.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/savithaselvaraj/git/EaseMyTrip/EaseMyTrip/src/test/resources/objectrepository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6C40D6-5C43-0840-AE4D-BFA8392E2620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2408CD-9DB6-0C42-A818-56F099A742B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{D3F5C180-57E5-144C-A0BD-109FA2060A8F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{D3F5C180-57E5-144C-A0BD-109FA2060A8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Search" sheetId="1" r:id="rId1"/>
-    <sheet name="Flights" sheetId="2" r:id="rId2"/>
+    <sheet name="Mumbai-Chennai-01-10 17-35" r:id="rId5" sheetId="2"/>
+    <sheet name="Delhi-Bangalore-01-10 17-35" r:id="rId6" sheetId="3"/>
+    <sheet name="Chennai-Delhi-01-10 17-35" r:id="rId7" sheetId="4"/>
+    <sheet name="Delhi-Mumbai-01-10 17-35" r:id="rId8" sheetId="5"/>
+    <sheet name="Bangalore-Chennai-01-10 17-36" r:id="rId9" sheetId="6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="334">
   <si>
     <t>From</t>
   </si>
@@ -46,9 +50,6 @@
     <t>Date of Travel</t>
   </si>
   <si>
-    <t>3/14/2022</t>
-  </si>
-  <si>
     <t>TravelClass</t>
   </si>
   <si>
@@ -70,118 +71,976 @@
     <t>Prem.Economy</t>
   </si>
   <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Economy</t>
+  </si>
+  <si>
+    <t>3/19/2022</t>
+  </si>
+  <si>
+    <t>4/1/2022</t>
+  </si>
+  <si>
+    <t>5/9/2022</t>
+  </si>
+  <si>
+    <t>6/1/2022</t>
+  </si>
+  <si>
+    <t>7/1/2022</t>
+  </si>
+  <si>
     <t>Flights</t>
   </si>
   <si>
+    <t>Departure Time</t>
+  </si>
+  <si>
+    <t>Arrival Time</t>
+  </si>
+  <si>
     <t>Price</t>
   </si>
   <si>
-    <t>Departure Time</t>
-  </si>
-  <si>
-    <t>Arrival time</t>
-  </si>
-  <si>
     <t>Vistara</t>
   </si>
   <si>
+    <t>06:30</t>
+  </si>
+  <si>
+    <t>16:20</t>
+  </si>
+  <si>
+    <t>64,156</t>
+  </si>
+  <si>
+    <t>06:00</t>
+  </si>
+  <si>
+    <t>22:45</t>
+  </si>
+  <si>
+    <t>09:55</t>
+  </si>
+  <si>
+    <t>21:55</t>
+  </si>
+  <si>
+    <t>20:55</t>
+  </si>
+  <si>
+    <t>20:15</t>
+  </si>
+  <si>
+    <t>18:30</t>
+  </si>
+  <si>
     <t>10:25</t>
   </si>
   <si>
-    <t>16:20</t>
-  </si>
-  <si>
-    <t>58,823</t>
+    <t>65,631</t>
   </si>
   <si>
     <t>15:45</t>
   </si>
   <si>
-    <t>22:45</t>
-  </si>
-  <si>
     <t>14:40</t>
   </si>
   <si>
     <t>11:55</t>
   </si>
   <si>
-    <t>20:15</t>
-  </si>
-  <si>
-    <t>06:30</t>
-  </si>
-  <si>
-    <t>06:00</t>
-  </si>
-  <si>
-    <t>09:55</t>
-  </si>
-  <si>
-    <t>21:55</t>
-  </si>
-  <si>
-    <t>20:55</t>
+    <t>08:45</t>
+  </si>
+  <si>
+    <t>67,311</t>
+  </si>
+  <si>
+    <t>07:30</t>
+  </si>
+  <si>
+    <t>11:30</t>
+  </si>
+  <si>
+    <t>90,887</t>
+  </si>
+  <si>
+    <t>12:15</t>
+  </si>
+  <si>
+    <t>92,952</t>
+  </si>
+  <si>
+    <t>13:20</t>
+  </si>
+  <si>
+    <t>95,827</t>
+  </si>
+  <si>
+    <t>95,948</t>
+  </si>
+  <si>
+    <t>16:05</t>
+  </si>
+  <si>
+    <t>10:45</t>
+  </si>
+  <si>
+    <t>99,472</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>104,762</t>
+  </si>
+  <si>
+    <t>19:10</t>
+  </si>
+  <si>
+    <t>07:00</t>
+  </si>
+  <si>
+    <t>105,322</t>
+  </si>
+  <si>
+    <t>09:05</t>
+  </si>
+  <si>
+    <t>105,882</t>
+  </si>
+  <si>
+    <t>Indigo</t>
+  </si>
+  <si>
+    <t>21:15</t>
+  </si>
+  <si>
+    <t>02:30</t>
+  </si>
+  <si>
+    <t>25,552</t>
+  </si>
+  <si>
+    <t>17:55</t>
+  </si>
+  <si>
+    <t>23:59</t>
+  </si>
+  <si>
+    <t>02:15</t>
+  </si>
+  <si>
+    <t>08:50</t>
+  </si>
+  <si>
+    <t>08:25</t>
+  </si>
+  <si>
+    <t>15:35</t>
+  </si>
+  <si>
+    <t>23:10</t>
+  </si>
+  <si>
+    <t>06:20</t>
+  </si>
+  <si>
+    <t>13:40</t>
+  </si>
+  <si>
+    <t>13:50</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>28,360</t>
+  </si>
+  <si>
+    <t>19:30</t>
+  </si>
+  <si>
+    <t>01:00</t>
+  </si>
+  <si>
+    <t>17:40</t>
+  </si>
+  <si>
+    <t>23:35</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>06:05</t>
+  </si>
+  <si>
+    <t>14:25</t>
+  </si>
+  <si>
+    <t>05:15</t>
+  </si>
+  <si>
+    <t>14:20</t>
+  </si>
+  <si>
+    <t>Air India</t>
+  </si>
+  <si>
+    <t>06:10</t>
+  </si>
+  <si>
+    <t>08:55</t>
+  </si>
+  <si>
+    <t>30,838</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>16:15</t>
+  </si>
+  <si>
+    <t>SpiceJet</t>
+  </si>
+  <si>
+    <t>20:25</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>33,840</t>
+  </si>
+  <si>
+    <t>18:45</t>
+  </si>
+  <si>
+    <t>21:05</t>
+  </si>
+  <si>
+    <t>08:40</t>
+  </si>
+  <si>
+    <t>17:05</t>
+  </si>
+  <si>
+    <t>36,216</t>
+  </si>
+  <si>
+    <t>23:55</t>
+  </si>
+  <si>
+    <t>09:45</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>17:20</t>
+  </si>
+  <si>
+    <t>20:05</t>
+  </si>
+  <si>
+    <t>AirAsia</t>
+  </si>
+  <si>
+    <t>20:40</t>
+  </si>
+  <si>
+    <t>15:25</t>
+  </si>
+  <si>
+    <t>01:25</t>
+  </si>
+  <si>
+    <t>10:40</t>
+  </si>
+  <si>
+    <t>09:35</t>
+  </si>
+  <si>
+    <t>12:25</t>
+  </si>
+  <si>
+    <t>20:45</t>
+  </si>
+  <si>
+    <t>21:25</t>
+  </si>
+  <si>
+    <t>00:15</t>
+  </si>
+  <si>
+    <t>18:35</t>
+  </si>
+  <si>
+    <t>21:30</t>
+  </si>
+  <si>
+    <t>23:20</t>
+  </si>
+  <si>
+    <t>06:15</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>04:15</t>
+  </si>
+  <si>
+    <t>GO FIRST</t>
+  </si>
+  <si>
+    <t>05:50</t>
+  </si>
+  <si>
+    <t>08:35</t>
+  </si>
+  <si>
+    <t>08:20</t>
+  </si>
+  <si>
+    <t>11:05</t>
+  </si>
+  <si>
+    <t>09:15</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>14:45</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>18:15</t>
+  </si>
+  <si>
+    <t>20:35</t>
+  </si>
+  <si>
+    <t>21:20</t>
+  </si>
+  <si>
+    <t>00:05</t>
+  </si>
+  <si>
+    <t>22:50</t>
+  </si>
+  <si>
+    <t>01:35</t>
+  </si>
+  <si>
+    <t>05:20</t>
+  </si>
+  <si>
+    <t>07:20</t>
+  </si>
+  <si>
+    <t>10:10</t>
+  </si>
+  <si>
+    <t>18:20</t>
+  </si>
+  <si>
+    <t>22:25</t>
+  </si>
+  <si>
+    <t>20:30</t>
+  </si>
+  <si>
+    <t>23:25</t>
+  </si>
+  <si>
+    <t>21:45</t>
+  </si>
+  <si>
+    <t>00:40</t>
+  </si>
+  <si>
+    <t>16:35</t>
   </si>
   <si>
     <t>19:45</t>
   </si>
   <si>
-    <t>18:30</t>
+    <t>04:25</t>
   </si>
   <si>
     <t>17:35</t>
   </si>
   <si>
-    <t>08:45</t>
-  </si>
-  <si>
-    <t>65,981</t>
-  </si>
-  <si>
-    <t>11:30</t>
-  </si>
-  <si>
-    <t>85,762</t>
-  </si>
-  <si>
-    <t>12:15</t>
-  </si>
-  <si>
-    <t>90,462</t>
-  </si>
-  <si>
-    <t>10:45</t>
-  </si>
-  <si>
-    <t>90,907</t>
-  </si>
-  <si>
-    <t>13:20</t>
-  </si>
-  <si>
-    <t>94,077</t>
-  </si>
-  <si>
-    <t>21:00</t>
-  </si>
-  <si>
-    <t>97,842</t>
-  </si>
-  <si>
-    <t>19:10</t>
-  </si>
-  <si>
-    <t>07:00</t>
-  </si>
-  <si>
-    <t>98,402</t>
-  </si>
-  <si>
-    <t>09:05</t>
-  </si>
-  <si>
-    <t>98,962</t>
+    <t>19:50</t>
+  </si>
+  <si>
+    <t>22:40</t>
+  </si>
+  <si>
+    <t>10:55</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>00:10</t>
+  </si>
+  <si>
+    <t>00:30</t>
+  </si>
+  <si>
+    <t>07:45</t>
+  </si>
+  <si>
+    <t>14:30</t>
+  </si>
+  <si>
+    <t>20:50</t>
+  </si>
+  <si>
+    <t>08:05</t>
+  </si>
+  <si>
+    <t>10:50</t>
+  </si>
+  <si>
+    <t>18:50</t>
+  </si>
+  <si>
+    <t>14:15</t>
+  </si>
+  <si>
+    <t>18:05</t>
+  </si>
+  <si>
+    <t>07:55</t>
+  </si>
+  <si>
+    <t>13:10</t>
+  </si>
+  <si>
+    <t>11:45</t>
+  </si>
+  <si>
+    <t>17:25</t>
+  </si>
+  <si>
+    <t>19:25</t>
+  </si>
+  <si>
+    <t>06:40</t>
+  </si>
+  <si>
+    <t>23:15</t>
+  </si>
+  <si>
+    <t>07:10</t>
+  </si>
+  <si>
+    <t>08:10</t>
+  </si>
+  <si>
+    <t>20:20</t>
+  </si>
+  <si>
+    <t>22:15</t>
+  </si>
+  <si>
+    <t>07:05</t>
+  </si>
+  <si>
+    <t>21:10</t>
+  </si>
+  <si>
+    <t>22:10</t>
+  </si>
+  <si>
+    <t>23:40</t>
+  </si>
+  <si>
+    <t>17:50</t>
+  </si>
+  <si>
+    <t>15:05</t>
+  </si>
+  <si>
+    <t>02:40</t>
+  </si>
+  <si>
+    <t>06:50</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>10:15</t>
+  </si>
+  <si>
+    <t>12:45</t>
+  </si>
+  <si>
+    <t>12:50</t>
+  </si>
+  <si>
+    <t>07:25</t>
+  </si>
+  <si>
+    <t>17:30</t>
+  </si>
+  <si>
+    <t>23:30</t>
+  </si>
+  <si>
+    <t>14:55</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>05:55</t>
+  </si>
+  <si>
+    <t>16:40</t>
+  </si>
+  <si>
+    <t>03:55</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>19:05</t>
+  </si>
+  <si>
+    <t>16:45</t>
+  </si>
+  <si>
+    <t>10:20</t>
+  </si>
+  <si>
+    <t>14:50</t>
+  </si>
+  <si>
+    <t>15:10</t>
+  </si>
+  <si>
+    <t>12:40</t>
+  </si>
+  <si>
+    <t>23:50</t>
+  </si>
+  <si>
+    <t>12:10</t>
+  </si>
+  <si>
+    <t>04:55</t>
+  </si>
+  <si>
+    <t>11:40</t>
+  </si>
+  <si>
+    <t>17:45</t>
+  </si>
+  <si>
+    <t>05:45</t>
+  </si>
+  <si>
+    <t>13:55</t>
+  </si>
+  <si>
+    <t>22:55</t>
+  </si>
+  <si>
+    <t>09:25</t>
+  </si>
+  <si>
+    <t>15:40</t>
+  </si>
+  <si>
+    <t>00:25</t>
+  </si>
+  <si>
+    <t>00:50</t>
+  </si>
+  <si>
+    <t>05:00</t>
+  </si>
+  <si>
+    <t>12:20</t>
+  </si>
+  <si>
+    <t>16:50</t>
+  </si>
+  <si>
+    <t>00:45</t>
+  </si>
+  <si>
+    <t>13:45</t>
+  </si>
+  <si>
+    <t>10:35</t>
+  </si>
+  <si>
+    <t>15:50</t>
+  </si>
+  <si>
+    <t>14:10</t>
+  </si>
+  <si>
+    <t>22:00</t>
+  </si>
+  <si>
+    <t>22:30</t>
+  </si>
+  <si>
+    <t>10:05</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
+    <t>05:35</t>
+  </si>
+  <si>
+    <t>20:10</t>
+  </si>
+  <si>
+    <t>36,922</t>
+  </si>
+  <si>
+    <t>9,104</t>
+  </si>
+  <si>
+    <t>12:35</t>
+  </si>
+  <si>
+    <t>06:35</t>
+  </si>
+  <si>
+    <t>9,820</t>
+  </si>
+  <si>
+    <t>01:15</t>
+  </si>
+  <si>
+    <t>03:20</t>
+  </si>
+  <si>
+    <t>9,824</t>
+  </si>
+  <si>
+    <t>9,904</t>
+  </si>
+  <si>
+    <t>21:35</t>
+  </si>
+  <si>
+    <t>11,160</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>14:05</t>
+  </si>
+  <si>
+    <t>11,164</t>
+  </si>
+  <si>
+    <t>12:55</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>18:10</t>
+  </si>
+  <si>
+    <t>09:30</t>
+  </si>
+  <si>
+    <t>16:25</t>
+  </si>
+  <si>
+    <t>12,004</t>
+  </si>
+  <si>
+    <t>18:40</t>
+  </si>
+  <si>
+    <t>22:05</t>
+  </si>
+  <si>
+    <t>14,000</t>
+  </si>
+  <si>
+    <t>14,216</t>
+  </si>
+  <si>
+    <t>14,592</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>14,684</t>
+  </si>
+  <si>
+    <t>14,708</t>
+  </si>
+  <si>
+    <t>15,096</t>
+  </si>
+  <si>
+    <t>09:40</t>
+  </si>
+  <si>
+    <t>15,324</t>
+  </si>
+  <si>
+    <t>15,420</t>
+  </si>
+  <si>
+    <t>15,644</t>
+  </si>
+  <si>
+    <t>11:10</t>
+  </si>
+  <si>
+    <t>23:45</t>
+  </si>
+  <si>
+    <t>15,852</t>
+  </si>
+  <si>
+    <t>16,428</t>
+  </si>
+  <si>
+    <t>16,440</t>
+  </si>
+  <si>
+    <t>23:05</t>
+  </si>
+  <si>
+    <t>16,932</t>
+  </si>
+  <si>
+    <t>21:50</t>
+  </si>
+  <si>
+    <t>07:50</t>
+  </si>
+  <si>
+    <t>17,172</t>
+  </si>
+  <si>
+    <t>17,900</t>
+  </si>
+  <si>
+    <t>18,084</t>
+  </si>
+  <si>
+    <t>02:00</t>
+  </si>
+  <si>
+    <t>19,080</t>
+  </si>
+  <si>
+    <t>13:35</t>
+  </si>
+  <si>
+    <t>19,120</t>
+  </si>
+  <si>
+    <t>09:20</t>
+  </si>
+  <si>
+    <t>19,160</t>
+  </si>
+  <si>
+    <t>19,332</t>
+  </si>
+  <si>
+    <t>05:30</t>
+  </si>
+  <si>
+    <t>06:55</t>
+  </si>
+  <si>
+    <t>19,724</t>
+  </si>
+  <si>
+    <t>19,756</t>
+  </si>
+  <si>
+    <t>17:15</t>
+  </si>
+  <si>
+    <t>20,048</t>
+  </si>
+  <si>
+    <t>15:55</t>
+  </si>
+  <si>
+    <t>21:40</t>
+  </si>
+  <si>
+    <t>17:10</t>
+  </si>
+  <si>
+    <t>20,104</t>
+  </si>
+  <si>
+    <t>20,628</t>
+  </si>
+  <si>
+    <t>13:25</t>
+  </si>
+  <si>
+    <t>20,924</t>
+  </si>
+  <si>
+    <t>20,944</t>
+  </si>
+  <si>
+    <t>18:55</t>
+  </si>
+  <si>
+    <t>21,012</t>
+  </si>
+  <si>
+    <t>22,028</t>
+  </si>
+  <si>
+    <t>22,100</t>
+  </si>
+  <si>
+    <t>00:35</t>
+  </si>
+  <si>
+    <t>16:55</t>
+  </si>
+  <si>
+    <t>22,336</t>
+  </si>
+  <si>
+    <t>22,604</t>
+  </si>
+  <si>
+    <t>23,044</t>
+  </si>
+  <si>
+    <t>23,384</t>
+  </si>
+  <si>
+    <t>23,480</t>
+  </si>
+  <si>
+    <t>23,708</t>
+  </si>
+  <si>
+    <t>23,820</t>
+  </si>
+  <si>
+    <t>23,896</t>
+  </si>
+  <si>
+    <t>07:15</t>
+  </si>
+  <si>
+    <t>24,032</t>
+  </si>
+  <si>
+    <t>02:25</t>
+  </si>
+  <si>
+    <t>24,528</t>
+  </si>
+  <si>
+    <t>07:40</t>
+  </si>
+  <si>
+    <t>24,660</t>
+  </si>
+  <si>
+    <t>25,500</t>
+  </si>
+  <si>
+    <t>25,760</t>
+  </si>
+  <si>
+    <t>25,988</t>
+  </si>
+  <si>
+    <t>26,036</t>
+  </si>
+  <si>
+    <t>26,124</t>
+  </si>
+  <si>
+    <t>26,760</t>
+  </si>
+  <si>
+    <t>26,844</t>
+  </si>
+  <si>
+    <t>26,896</t>
+  </si>
+  <si>
+    <t>27,748</t>
+  </si>
+  <si>
+    <t>28,508</t>
+  </si>
+  <si>
+    <t>29,004</t>
+  </si>
+  <si>
+    <t>29,876</t>
+  </si>
+  <si>
+    <t>11:15</t>
+  </si>
+  <si>
+    <t>33,272</t>
+  </si>
+  <si>
+    <t>18:25</t>
+  </si>
+  <si>
+    <t>37,604</t>
+  </si>
+  <si>
+    <t>42,344</t>
+  </si>
+  <si>
+    <t>46,004</t>
+  </si>
+  <si>
+    <t>51,960</t>
+  </si>
+  <si>
+    <t>35,503</t>
+  </si>
+  <si>
+    <t>19:40</t>
+  </si>
+  <si>
+    <t>39,615</t>
+  </si>
+  <si>
+    <t>41,631</t>
   </si>
 </sst>
 </file>
@@ -535,18 +1394,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4524B536-E955-7442-B229-9C233E6B3060}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.6640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="11.1640625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.1640625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="16.1640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.5" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="13.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -560,30 +1419,30 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -592,6 +1451,98 @@
         <v>2</v>
       </c>
       <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
     </row>
@@ -601,665 +1552,5369 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EC1D6A-88F4-5749-9660-86CE9BB428A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.0" collapsed="false"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
         <v>27</v>
       </c>
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
         <v>27</v>
       </c>
-      <c r="C28" t="s">
-        <v>20</v>
-      </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D164"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" t="s">
+        <v>154</v>
+      </c>
+      <c r="C63" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>58</v>
+      </c>
+      <c r="B71" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>58</v>
+      </c>
+      <c r="B72" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>58</v>
+      </c>
+      <c r="B74" t="s">
+        <v>166</v>
+      </c>
+      <c r="C74" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B75" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>58</v>
+      </c>
+      <c r="B76" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>58</v>
+      </c>
+      <c r="B77" t="s">
+        <v>108</v>
+      </c>
+      <c r="C77" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>58</v>
+      </c>
+      <c r="B78" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79" t="s">
+        <v>125</v>
+      </c>
+      <c r="C79" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>172</v>
+      </c>
+      <c r="C81" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>173</v>
+      </c>
+      <c r="C82" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" t="s">
+        <v>65</v>
+      </c>
+      <c r="C83" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" t="s">
+        <v>135</v>
+      </c>
+      <c r="C84" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" t="s">
+        <v>65</v>
+      </c>
+      <c r="C85" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>135</v>
+      </c>
+      <c r="C86" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>83</v>
+      </c>
+      <c r="B87" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88" t="s">
+        <v>176</v>
+      </c>
+      <c r="C88" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>83</v>
+      </c>
+      <c r="B89" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>119</v>
+      </c>
+      <c r="B90" t="s">
+        <v>178</v>
+      </c>
+      <c r="C90" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>119</v>
+      </c>
+      <c r="B91" t="s">
+        <v>137</v>
+      </c>
+      <c r="C91" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>119</v>
+      </c>
+      <c r="B92" t="s">
+        <v>137</v>
+      </c>
+      <c r="C92" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>119</v>
+      </c>
+      <c r="B93" t="s">
+        <v>91</v>
+      </c>
+      <c r="C93" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>119</v>
+      </c>
+      <c r="B94" t="s">
+        <v>179</v>
+      </c>
+      <c r="C94" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>119</v>
+      </c>
+      <c r="B95" t="s">
+        <v>137</v>
+      </c>
+      <c r="C95" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>83</v>
+      </c>
+      <c r="B96" t="s">
+        <v>172</v>
+      </c>
+      <c r="C96" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>83</v>
+      </c>
+      <c r="B97" t="s">
+        <v>32</v>
+      </c>
+      <c r="C97" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>83</v>
+      </c>
+      <c r="B98" t="s">
+        <v>180</v>
+      </c>
+      <c r="C98" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>83</v>
+      </c>
+      <c r="B99" t="s">
+        <v>72</v>
+      </c>
+      <c r="C99" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>83</v>
+      </c>
+      <c r="B100" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>58</v>
+      </c>
+      <c r="B101" t="s">
+        <v>181</v>
+      </c>
+      <c r="C101" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>58</v>
+      </c>
+      <c r="B102" t="s">
+        <v>182</v>
+      </c>
+      <c r="C102" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>119</v>
+      </c>
+      <c r="B103" t="s">
+        <v>30</v>
+      </c>
+      <c r="C103" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>83</v>
+      </c>
+      <c r="B104" t="s">
+        <v>79</v>
+      </c>
+      <c r="C104" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>119</v>
+      </c>
+      <c r="B105" t="s">
+        <v>144</v>
+      </c>
+      <c r="C105" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>89</v>
+      </c>
+      <c r="B106" t="s">
+        <v>184</v>
+      </c>
+      <c r="C106" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>58</v>
+      </c>
+      <c r="B107" t="s">
+        <v>185</v>
+      </c>
+      <c r="C107" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>58</v>
+      </c>
+      <c r="B108" t="s">
+        <v>187</v>
+      </c>
+      <c r="C108" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>58</v>
+      </c>
+      <c r="B109" t="s">
+        <v>108</v>
+      </c>
+      <c r="C109" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>119</v>
+      </c>
+      <c r="B110" t="s">
+        <v>69</v>
+      </c>
+      <c r="C110" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>119</v>
+      </c>
+      <c r="B111" t="s">
+        <v>189</v>
+      </c>
+      <c r="C111" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" t="s">
+        <v>190</v>
+      </c>
+      <c r="C112" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113" t="s">
+        <v>147</v>
+      </c>
+      <c r="C113" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114" t="s">
+        <v>192</v>
+      </c>
+      <c r="C114" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115" t="s">
+        <v>190</v>
+      </c>
+      <c r="C115" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>89</v>
+      </c>
+      <c r="B116" t="s">
+        <v>53</v>
+      </c>
+      <c r="C116" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" t="s">
+        <v>192</v>
+      </c>
+      <c r="C117" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" t="s">
+        <v>192</v>
+      </c>
+      <c r="C118" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" t="s">
+        <v>65</v>
+      </c>
+      <c r="C119" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>65</v>
+      </c>
+      <c r="C120" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>83</v>
+      </c>
+      <c r="B121" t="s">
+        <v>194</v>
+      </c>
+      <c r="C121" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>119</v>
+      </c>
+      <c r="B122" t="s">
+        <v>38</v>
+      </c>
+      <c r="C122" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>119</v>
+      </c>
+      <c r="B123" t="s">
+        <v>195</v>
+      </c>
+      <c r="C123" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>89</v>
+      </c>
+      <c r="B124" t="s">
+        <v>197</v>
+      </c>
+      <c r="C124" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>103</v>
+      </c>
+      <c r="B125" t="s">
+        <v>198</v>
+      </c>
+      <c r="C125" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>103</v>
+      </c>
+      <c r="B126" t="s">
+        <v>200</v>
+      </c>
+      <c r="C126" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>83</v>
+      </c>
+      <c r="B127" t="s">
+        <v>201</v>
+      </c>
+      <c r="C127" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>83</v>
+      </c>
+      <c r="B128" t="s">
+        <v>203</v>
+      </c>
+      <c r="C128" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>83</v>
+      </c>
+      <c r="B129" t="s">
+        <v>95</v>
+      </c>
+      <c r="C129" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>89</v>
+      </c>
+      <c r="B130" t="s">
+        <v>24</v>
+      </c>
+      <c r="C130" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>83</v>
+      </c>
+      <c r="B131" t="s">
+        <v>179</v>
+      </c>
+      <c r="C131" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>83</v>
+      </c>
+      <c r="B132" t="s">
+        <v>31</v>
+      </c>
+      <c r="C132" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>103</v>
+      </c>
+      <c r="B133" t="s">
+        <v>204</v>
+      </c>
+      <c r="C133" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>119</v>
+      </c>
+      <c r="B134" t="s">
+        <v>204</v>
+      </c>
+      <c r="C134" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>58</v>
+      </c>
+      <c r="B135" t="s">
+        <v>192</v>
+      </c>
+      <c r="C135" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>119</v>
+      </c>
+      <c r="B136" t="s">
+        <v>107</v>
+      </c>
+      <c r="C136" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>89</v>
+      </c>
+      <c r="B137" t="s">
+        <v>125</v>
+      </c>
+      <c r="C137" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>103</v>
+      </c>
+      <c r="B138" t="s">
+        <v>207</v>
+      </c>
+      <c r="C138" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>103</v>
+      </c>
+      <c r="B139" t="s">
+        <v>208</v>
+      </c>
+      <c r="C139" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>103</v>
+      </c>
+      <c r="B140" t="s">
+        <v>37</v>
+      </c>
+      <c r="C140" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>103</v>
+      </c>
+      <c r="B141" t="s">
+        <v>168</v>
+      </c>
+      <c r="C141" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>103</v>
+      </c>
+      <c r="B142" t="s">
+        <v>183</v>
+      </c>
+      <c r="C142" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>103</v>
+      </c>
+      <c r="B143" t="s">
+        <v>183</v>
+      </c>
+      <c r="C143" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>119</v>
+      </c>
+      <c r="B144" t="s">
+        <v>194</v>
+      </c>
+      <c r="C144" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>103</v>
+      </c>
+      <c r="B145" t="s">
+        <v>211</v>
+      </c>
+      <c r="C145" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>103</v>
+      </c>
+      <c r="B146" t="s">
+        <v>213</v>
+      </c>
+      <c r="C146" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>103</v>
+      </c>
+      <c r="B147" t="s">
+        <v>211</v>
+      </c>
+      <c r="C147" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>83</v>
+      </c>
+      <c r="B148" t="s">
+        <v>194</v>
+      </c>
+      <c r="C148" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>83</v>
+      </c>
+      <c r="B149" t="s">
+        <v>215</v>
+      </c>
+      <c r="C149" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>83</v>
+      </c>
+      <c r="B150" t="s">
+        <v>216</v>
+      </c>
+      <c r="C150" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>103</v>
+      </c>
+      <c r="B151" t="s">
+        <v>201</v>
+      </c>
+      <c r="C151" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>103</v>
+      </c>
+      <c r="B152" t="s">
+        <v>201</v>
+      </c>
+      <c r="C152" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>83</v>
+      </c>
+      <c r="B153" t="s">
+        <v>218</v>
+      </c>
+      <c r="C153" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>83</v>
+      </c>
+      <c r="B154" t="s">
+        <v>88</v>
+      </c>
+      <c r="C154" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>83</v>
+      </c>
+      <c r="B155" t="s">
+        <v>88</v>
+      </c>
+      <c r="C155" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>103</v>
+      </c>
+      <c r="B156" t="s">
+        <v>69</v>
+      </c>
+      <c r="C156" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>83</v>
+      </c>
+      <c r="B157" t="s">
+        <v>219</v>
+      </c>
+      <c r="C157" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>89</v>
+      </c>
+      <c r="B158" t="s">
+        <v>41</v>
+      </c>
+      <c r="C158" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>103</v>
+      </c>
+      <c r="B159" t="s">
+        <v>221</v>
+      </c>
+      <c r="C159" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>103</v>
+      </c>
+      <c r="B160" t="s">
+        <v>69</v>
+      </c>
+      <c r="C160" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>83</v>
+      </c>
+      <c r="B161" t="s">
+        <v>59</v>
+      </c>
+      <c r="C161" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>83</v>
+      </c>
+      <c r="B162" t="s">
+        <v>222</v>
+      </c>
+      <c r="C162" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>83</v>
+      </c>
+      <c r="B163" t="s">
+        <v>223</v>
+      </c>
+      <c r="C163" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>89</v>
+      </c>
+      <c r="B164" t="s">
+        <v>125</v>
+      </c>
+      <c r="C164" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D173"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" t="s">
+        <v>241</v>
+      </c>
+      <c r="D26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
+        <v>242</v>
+      </c>
+      <c r="C27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>245</v>
+      </c>
+      <c r="C30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" t="s">
+        <v>246</v>
+      </c>
+      <c r="D31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" t="s">
+        <v>217</v>
+      </c>
+      <c r="D34" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
+        <v>250</v>
+      </c>
+      <c r="D36" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" t="s">
+        <v>246</v>
+      </c>
+      <c r="D39" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C40" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" t="s">
+        <v>217</v>
+      </c>
+      <c r="D42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" t="s">
+        <v>254</v>
+      </c>
+      <c r="D44" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46" t="s">
+        <v>115</v>
+      </c>
       <c r="D46" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" t="s">
+        <v>254</v>
+      </c>
+      <c r="D47" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" t="s">
+        <v>254</v>
+      </c>
+      <c r="D48" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" t="s">
+        <v>156</v>
+      </c>
+      <c r="D51" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" t="s">
+        <v>156</v>
+      </c>
+      <c r="D53" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>190</v>
+      </c>
+      <c r="C55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" t="s">
+        <v>258</v>
+      </c>
+      <c r="D56" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" t="s">
+        <v>259</v>
+      </c>
+      <c r="D57" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" t="s">
+        <v>258</v>
+      </c>
+      <c r="D58" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>214</v>
+      </c>
+      <c r="C59" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>190</v>
+      </c>
+      <c r="C60" t="s">
+        <v>259</v>
+      </c>
+      <c r="D60" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>214</v>
+      </c>
+      <c r="C61" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" t="s">
+        <v>143</v>
+      </c>
+      <c r="D63" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65" t="s">
+        <v>214</v>
+      </c>
+      <c r="C65" t="s">
+        <v>258</v>
+      </c>
+      <c r="D65" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>58</v>
+      </c>
+      <c r="B66" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" t="s">
+        <v>259</v>
+      </c>
+      <c r="D66" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>58</v>
+      </c>
+      <c r="B67" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" t="s">
+        <v>143</v>
+      </c>
+      <c r="D67" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" t="s">
+        <v>171</v>
+      </c>
+      <c r="C68" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69" t="s">
+        <v>171</v>
+      </c>
+      <c r="C69" t="s">
+        <v>91</v>
+      </c>
+      <c r="D69" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" t="s">
+        <v>54</v>
+      </c>
+      <c r="D70" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" t="s">
+        <v>176</v>
+      </c>
+      <c r="D71" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>58</v>
+      </c>
+      <c r="B72" t="s">
+        <v>182</v>
+      </c>
+      <c r="C72" t="s">
+        <v>155</v>
+      </c>
+      <c r="D72" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" t="s">
         <v>48</v>
       </c>
+      <c r="D73" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>58</v>
+      </c>
+      <c r="B74" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" t="s">
+        <v>263</v>
+      </c>
+      <c r="D75" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>58</v>
+      </c>
+      <c r="B76" t="s">
+        <v>265</v>
+      </c>
+      <c r="C76" t="s">
+        <v>266</v>
+      </c>
+      <c r="D76" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" t="s">
+        <v>223</v>
+      </c>
+      <c r="C77" t="s">
+        <v>171</v>
+      </c>
+      <c r="D77" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>119</v>
+      </c>
+      <c r="B78" t="s">
+        <v>117</v>
+      </c>
+      <c r="C78" t="s">
+        <v>205</v>
+      </c>
+      <c r="D78" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79" t="s">
+        <v>270</v>
+      </c>
+      <c r="D79" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>119</v>
+      </c>
+      <c r="B80" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80" t="s">
+        <v>243</v>
+      </c>
+      <c r="D80" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>239</v>
+      </c>
+      <c r="C81" t="s">
+        <v>272</v>
+      </c>
+      <c r="D81" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>186</v>
+      </c>
+      <c r="C82" t="s">
+        <v>274</v>
+      </c>
+      <c r="D82" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83" t="s">
+        <v>263</v>
+      </c>
+      <c r="D83" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84" t="s">
+        <v>236</v>
+      </c>
+      <c r="C84" t="s">
+        <v>220</v>
+      </c>
+      <c r="D84" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>58</v>
+      </c>
+      <c r="B85" t="s">
+        <v>277</v>
+      </c>
+      <c r="C85" t="s">
+        <v>157</v>
+      </c>
+      <c r="D85" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>58</v>
+      </c>
+      <c r="B86" t="s">
+        <v>181</v>
+      </c>
+      <c r="C86" t="s">
+        <v>160</v>
+      </c>
+      <c r="D86" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>58</v>
+      </c>
+      <c r="B87" t="s">
+        <v>130</v>
+      </c>
+      <c r="C87" t="s">
+        <v>278</v>
+      </c>
+      <c r="D87" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>41</v>
+      </c>
+      <c r="C88" t="s">
+        <v>217</v>
+      </c>
+      <c r="D88" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>83</v>
+      </c>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" t="s">
+        <v>139</v>
+      </c>
+      <c r="D89" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>83</v>
+      </c>
+      <c r="B90" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90" t="s">
+        <v>139</v>
+      </c>
+      <c r="D90" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>83</v>
+      </c>
+      <c r="B91" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" t="s">
+        <v>109</v>
+      </c>
+      <c r="D91" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>83</v>
+      </c>
+      <c r="B92" t="s">
+        <v>31</v>
+      </c>
+      <c r="C92" t="s">
+        <v>281</v>
+      </c>
+      <c r="D92" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93" t="s">
+        <v>31</v>
+      </c>
+      <c r="C93" t="s">
+        <v>139</v>
+      </c>
+      <c r="D93" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>83</v>
+      </c>
+      <c r="B94" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" t="s">
+        <v>109</v>
+      </c>
+      <c r="D94" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>119</v>
+      </c>
+      <c r="B95" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95" t="s">
+        <v>130</v>
+      </c>
+      <c r="D95" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>119</v>
+      </c>
+      <c r="B96" t="s">
+        <v>179</v>
+      </c>
+      <c r="C96" t="s">
+        <v>283</v>
+      </c>
+      <c r="D96" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>119</v>
+      </c>
+      <c r="B97" t="s">
+        <v>125</v>
+      </c>
+      <c r="C97" t="s">
+        <v>130</v>
+      </c>
+      <c r="D97" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>119</v>
+      </c>
+      <c r="B98" t="s">
+        <v>284</v>
+      </c>
+      <c r="C98" t="s">
+        <v>169</v>
+      </c>
+      <c r="D98" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>83</v>
+      </c>
+      <c r="B99" t="s">
+        <v>245</v>
+      </c>
+      <c r="C99" t="s">
+        <v>285</v>
+      </c>
+      <c r="D99" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>119</v>
+      </c>
+      <c r="B100" t="s">
+        <v>194</v>
+      </c>
+      <c r="C100" t="s">
+        <v>173</v>
+      </c>
+      <c r="D100" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>119</v>
+      </c>
+      <c r="B101" t="s">
+        <v>194</v>
+      </c>
+      <c r="C101" t="s">
+        <v>270</v>
+      </c>
+      <c r="D101" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>83</v>
+      </c>
+      <c r="B102" t="s">
+        <v>172</v>
+      </c>
+      <c r="C102" t="s">
+        <v>288</v>
+      </c>
+      <c r="D102" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>83</v>
+      </c>
+      <c r="B103" t="s">
+        <v>32</v>
+      </c>
+      <c r="C103" t="s">
+        <v>288</v>
+      </c>
+      <c r="D103" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>83</v>
+      </c>
+      <c r="B104" t="s">
+        <v>87</v>
+      </c>
+      <c r="C104" t="s">
+        <v>94</v>
+      </c>
+      <c r="D104" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>83</v>
+      </c>
+      <c r="B105" t="s">
+        <v>84</v>
+      </c>
+      <c r="C105" t="s">
+        <v>94</v>
+      </c>
+      <c r="D105" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>89</v>
+      </c>
+      <c r="B106" t="s">
+        <v>26</v>
+      </c>
+      <c r="C106" t="s">
+        <v>291</v>
+      </c>
+      <c r="D106" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>83</v>
+      </c>
+      <c r="B107" t="s">
+        <v>218</v>
+      </c>
+      <c r="C107" t="s">
+        <v>138</v>
+      </c>
+      <c r="D107" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>83</v>
+      </c>
+      <c r="B108" t="s">
+        <v>219</v>
+      </c>
+      <c r="C108" t="s">
+        <v>143</v>
+      </c>
+      <c r="D108" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>83</v>
+      </c>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109" t="s">
+        <v>151</v>
+      </c>
+      <c r="D109" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>83</v>
+      </c>
+      <c r="B110" t="s">
+        <v>219</v>
+      </c>
+      <c r="C110" t="s">
+        <v>295</v>
+      </c>
+      <c r="D110" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>119</v>
+      </c>
+      <c r="B111" t="s">
+        <v>250</v>
+      </c>
+      <c r="C111" t="s">
+        <v>296</v>
+      </c>
+      <c r="D111" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" t="s">
+        <v>69</v>
+      </c>
+      <c r="C112" t="s">
+        <v>296</v>
+      </c>
+      <c r="D112" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113" t="s">
+        <v>189</v>
+      </c>
+      <c r="C113" t="s">
+        <v>296</v>
+      </c>
+      <c r="D113" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>83</v>
+      </c>
+      <c r="B114" t="s">
+        <v>181</v>
+      </c>
+      <c r="C114" t="s">
+        <v>208</v>
+      </c>
+      <c r="D114" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>83</v>
+      </c>
+      <c r="B115" t="s">
+        <v>99</v>
+      </c>
+      <c r="C115" t="s">
+        <v>94</v>
+      </c>
+      <c r="D115" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>83</v>
+      </c>
+      <c r="B116" t="s">
+        <v>59</v>
+      </c>
+      <c r="C116" t="s">
+        <v>94</v>
+      </c>
+      <c r="D116" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>83</v>
+      </c>
+      <c r="B117" t="s">
+        <v>101</v>
+      </c>
+      <c r="C117" t="s">
+        <v>94</v>
+      </c>
+      <c r="D117" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" t="s">
+        <v>139</v>
+      </c>
+      <c r="C118" t="s">
+        <v>184</v>
+      </c>
+      <c r="D118" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119" t="s">
+        <v>128</v>
+      </c>
+      <c r="D119" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>31</v>
+      </c>
+      <c r="C120" t="s">
+        <v>91</v>
+      </c>
+      <c r="D120" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>83</v>
+      </c>
+      <c r="B121" t="s">
+        <v>194</v>
+      </c>
+      <c r="C121" t="s">
+        <v>281</v>
+      </c>
+      <c r="D121" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>83</v>
+      </c>
+      <c r="B122" t="s">
+        <v>215</v>
+      </c>
+      <c r="C122" t="s">
+        <v>281</v>
+      </c>
+      <c r="D122" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>22</v>
+      </c>
+      <c r="B123" t="s">
+        <v>26</v>
+      </c>
+      <c r="C123" t="s">
+        <v>91</v>
+      </c>
+      <c r="D123" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>22</v>
+      </c>
+      <c r="B124" t="s">
+        <v>183</v>
+      </c>
+      <c r="C124" t="s">
+        <v>188</v>
+      </c>
+      <c r="D124" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>22</v>
+      </c>
+      <c r="B125" t="s">
+        <v>127</v>
+      </c>
+      <c r="C125" t="s">
+        <v>76</v>
+      </c>
+      <c r="D125" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>22</v>
+      </c>
+      <c r="B126" t="s">
+        <v>40</v>
+      </c>
+      <c r="C126" t="s">
+        <v>99</v>
+      </c>
+      <c r="D126" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>22</v>
+      </c>
+      <c r="B127" t="s">
+        <v>195</v>
+      </c>
+      <c r="C127" t="s">
+        <v>227</v>
+      </c>
+      <c r="D127" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>22</v>
+      </c>
+      <c r="B128" t="s">
+        <v>202</v>
+      </c>
+      <c r="C128" t="s">
+        <v>192</v>
+      </c>
+      <c r="D128" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>103</v>
+      </c>
+      <c r="B129" t="s">
+        <v>113</v>
+      </c>
+      <c r="C129" t="s">
+        <v>295</v>
+      </c>
+      <c r="D129" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>103</v>
+      </c>
+      <c r="B130" t="s">
+        <v>113</v>
+      </c>
+      <c r="C130" t="s">
+        <v>295</v>
+      </c>
+      <c r="D130" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>103</v>
+      </c>
+      <c r="B131" t="s">
+        <v>111</v>
+      </c>
+      <c r="C131" t="s">
+        <v>305</v>
+      </c>
+      <c r="D131" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>103</v>
+      </c>
+      <c r="B132" t="s">
+        <v>110</v>
+      </c>
+      <c r="C132" t="s">
+        <v>305</v>
+      </c>
+      <c r="D132" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>103</v>
+      </c>
+      <c r="B133" t="s">
+        <v>108</v>
+      </c>
+      <c r="C133" t="s">
+        <v>129</v>
+      </c>
+      <c r="D133" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>103</v>
+      </c>
+      <c r="B134" t="s">
+        <v>91</v>
+      </c>
+      <c r="C134" t="s">
+        <v>129</v>
+      </c>
+      <c r="D134" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>103</v>
+      </c>
+      <c r="B135" t="s">
+        <v>113</v>
+      </c>
+      <c r="C135" t="s">
+        <v>305</v>
+      </c>
+      <c r="D135" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>103</v>
+      </c>
+      <c r="B136" t="s">
+        <v>108</v>
+      </c>
+      <c r="C136" t="s">
+        <v>295</v>
+      </c>
+      <c r="D136" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>103</v>
+      </c>
+      <c r="B137" t="s">
+        <v>108</v>
+      </c>
+      <c r="C137" t="s">
+        <v>295</v>
+      </c>
+      <c r="D137" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>103</v>
+      </c>
+      <c r="B138" t="s">
+        <v>91</v>
+      </c>
+      <c r="C138" t="s">
+        <v>295</v>
+      </c>
+      <c r="D138" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>58</v>
+      </c>
+      <c r="B139" t="s">
+        <v>187</v>
+      </c>
+      <c r="C139" t="s">
+        <v>129</v>
+      </c>
+      <c r="D139" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>103</v>
+      </c>
+      <c r="B140" t="s">
+        <v>180</v>
+      </c>
+      <c r="C140" t="s">
+        <v>307</v>
+      </c>
+      <c r="D140" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>103</v>
+      </c>
+      <c r="B141" t="s">
+        <v>180</v>
+      </c>
+      <c r="C141" t="s">
+        <v>309</v>
+      </c>
+      <c r="D141" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>103</v>
+      </c>
+      <c r="B142" t="s">
+        <v>198</v>
+      </c>
+      <c r="C142" t="s">
+        <v>307</v>
+      </c>
+      <c r="D142" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>103</v>
+      </c>
+      <c r="B143" t="s">
+        <v>200</v>
+      </c>
+      <c r="C143" t="s">
+        <v>307</v>
+      </c>
+      <c r="D143" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>83</v>
+      </c>
+      <c r="B144" t="s">
+        <v>219</v>
+      </c>
+      <c r="C144" t="s">
+        <v>138</v>
+      </c>
+      <c r="D144" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>22</v>
+      </c>
+      <c r="B145" t="s">
+        <v>284</v>
+      </c>
+      <c r="C145" t="s">
+        <v>199</v>
+      </c>
+      <c r="D145" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>22</v>
+      </c>
+      <c r="B146" t="s">
+        <v>65</v>
+      </c>
+      <c r="C146" t="s">
+        <v>258</v>
+      </c>
+      <c r="D146" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>119</v>
+      </c>
+      <c r="B147" t="s">
+        <v>277</v>
+      </c>
+      <c r="C147" t="s">
+        <v>192</v>
+      </c>
+      <c r="D147" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>119</v>
+      </c>
+      <c r="B148" t="s">
+        <v>222</v>
+      </c>
+      <c r="C148" t="s">
+        <v>167</v>
+      </c>
+      <c r="D148" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>89</v>
+      </c>
+      <c r="B149" t="s">
+        <v>236</v>
+      </c>
+      <c r="C149" t="s">
+        <v>222</v>
+      </c>
+      <c r="D149" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>89</v>
+      </c>
+      <c r="B150" t="s">
+        <v>54</v>
+      </c>
+      <c r="C150" t="s">
+        <v>105</v>
+      </c>
+      <c r="D150" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>89</v>
+      </c>
+      <c r="B151" t="s">
+        <v>158</v>
+      </c>
+      <c r="C151" t="s">
+        <v>105</v>
+      </c>
+      <c r="D151" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>119</v>
+      </c>
+      <c r="B152" t="s">
+        <v>195</v>
+      </c>
+      <c r="C152" t="s">
+        <v>127</v>
+      </c>
+      <c r="D152" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>22</v>
+      </c>
+      <c r="B153" t="s">
+        <v>203</v>
+      </c>
+      <c r="C153" t="s">
+        <v>102</v>
+      </c>
+      <c r="D153" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>22</v>
+      </c>
+      <c r="B154" t="s">
+        <v>291</v>
+      </c>
+      <c r="C154" t="s">
+        <v>59</v>
+      </c>
+      <c r="D154" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>83</v>
+      </c>
+      <c r="B155" t="s">
+        <v>188</v>
+      </c>
+      <c r="C155" t="s">
+        <v>175</v>
+      </c>
+      <c r="D155" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>83</v>
+      </c>
+      <c r="B156" t="s">
+        <v>201</v>
+      </c>
+      <c r="C156" t="s">
+        <v>215</v>
+      </c>
+      <c r="D156" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>58</v>
+      </c>
+      <c r="B157" t="s">
+        <v>281</v>
+      </c>
+      <c r="C157" t="s">
+        <v>165</v>
+      </c>
+      <c r="D157" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>83</v>
+      </c>
+      <c r="B158" t="s">
+        <v>69</v>
+      </c>
+      <c r="C158" t="s">
+        <v>272</v>
+      </c>
+      <c r="D158" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>119</v>
+      </c>
+      <c r="B159" t="s">
+        <v>38</v>
+      </c>
+      <c r="C159" t="s">
+        <v>141</v>
+      </c>
+      <c r="D159" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>119</v>
+      </c>
+      <c r="B160" t="s">
+        <v>111</v>
+      </c>
+      <c r="C160" t="s">
+        <v>153</v>
+      </c>
+      <c r="D160" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>119</v>
+      </c>
+      <c r="B161" t="s">
+        <v>134</v>
+      </c>
+      <c r="C161" t="s">
+        <v>323</v>
+      </c>
+      <c r="D161" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>119</v>
+      </c>
+      <c r="B162" t="s">
+        <v>134</v>
+      </c>
+      <c r="C162" t="s">
+        <v>325</v>
+      </c>
+      <c r="D162" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>119</v>
+      </c>
+      <c r="B163" t="s">
+        <v>107</v>
+      </c>
+      <c r="C163" t="s">
+        <v>158</v>
+      </c>
+      <c r="D163" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>119</v>
+      </c>
+      <c r="B164" t="s">
+        <v>207</v>
+      </c>
+      <c r="C164" t="s">
+        <v>325</v>
+      </c>
+      <c r="D164" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>83</v>
+      </c>
+      <c r="B165" t="s">
+        <v>194</v>
+      </c>
+      <c r="C165" t="s">
+        <v>243</v>
+      </c>
+      <c r="D165" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>22</v>
+      </c>
+      <c r="B166" t="s">
+        <v>40</v>
+      </c>
+      <c r="C166" t="s">
+        <v>78</v>
+      </c>
+      <c r="D166" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>22</v>
+      </c>
+      <c r="B167" t="s">
+        <v>116</v>
+      </c>
+      <c r="C167" t="s">
+        <v>78</v>
+      </c>
+      <c r="D167" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>22</v>
+      </c>
+      <c r="B168" t="s">
+        <v>40</v>
+      </c>
+      <c r="C168" t="s">
+        <v>170</v>
+      </c>
+      <c r="D168" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>22</v>
+      </c>
+      <c r="B169" t="s">
+        <v>116</v>
+      </c>
+      <c r="C169" t="s">
+        <v>170</v>
+      </c>
+      <c r="D169" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>22</v>
+      </c>
+      <c r="B170" t="s">
+        <v>139</v>
+      </c>
+      <c r="C170" t="s">
+        <v>78</v>
+      </c>
+      <c r="D170" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>22</v>
+      </c>
+      <c r="B171" t="s">
+        <v>185</v>
+      </c>
+      <c r="C171" t="s">
+        <v>78</v>
+      </c>
+      <c r="D171" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>22</v>
+      </c>
+      <c r="B172" t="s">
+        <v>139</v>
+      </c>
+      <c r="C172" t="s">
+        <v>170</v>
+      </c>
+      <c r="D172" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>22</v>
+      </c>
+      <c r="B173" t="s">
+        <v>185</v>
+      </c>
+      <c r="C173" t="s">
+        <v>170</v>
+      </c>
+      <c r="D173" t="s">
+        <v>329</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>331</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>331</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/EaseMyTrip/src/test/resources/objectrepository/FlightDetails.xlsx
+++ b/EaseMyTrip/src/test/resources/objectrepository/FlightDetails.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/savithaselvaraj/git/EaseMyTrip/EaseMyTrip/src/test/resources/objectrepository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2408CD-9DB6-0C42-A818-56F099A742B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F200D1-559B-0648-B593-442054D1F30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{D3F5C180-57E5-144C-A0BD-109FA2060A8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Search" sheetId="1" r:id="rId1"/>
-    <sheet name="Mumbai-Chennai-01-10 17-35" r:id="rId5" sheetId="2"/>
-    <sheet name="Delhi-Bangalore-01-10 17-35" r:id="rId6" sheetId="3"/>
-    <sheet name="Chennai-Delhi-01-10 17-35" r:id="rId7" sheetId="4"/>
-    <sheet name="Delhi-Mumbai-01-10 17-35" r:id="rId8" sheetId="5"/>
-    <sheet name="Bangalore-Chennai-01-10 17-36" r:id="rId9" sheetId="6"/>
+    <sheet name="Mumbai-Chennai-01-10 18-59" r:id="rId5" sheetId="2"/>
+    <sheet name="Delhi-Bangalore-01-10 19-00" r:id="rId6" sheetId="3"/>
+    <sheet name="Chennai-Delhi-01-10 19-00" r:id="rId7" sheetId="4"/>
+    <sheet name="Delhi-Mumbai-01-10 19-00" r:id="rId8" sheetId="5"/>
+    <sheet name="Bangalore-Chennai-01-10 19-00" r:id="rId9" sheetId="6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="335">
   <si>
     <t>From</t>
   </si>
@@ -224,7 +224,7 @@
     <t>02:30</t>
   </si>
   <si>
-    <t>25,552</t>
+    <t>12,776</t>
   </si>
   <si>
     <t>17:55</t>
@@ -260,7 +260,7 @@
     <t>19:00</t>
   </si>
   <si>
-    <t>28,360</t>
+    <t>14,180</t>
   </si>
   <si>
     <t>19:30</t>
@@ -275,21 +275,33 @@
     <t>23:35</t>
   </si>
   <si>
+    <t>07:20</t>
+  </si>
+  <si>
+    <t>14:25</t>
+  </si>
+  <si>
     <t>13:00</t>
   </si>
   <si>
     <t>06:05</t>
   </si>
   <si>
-    <t>14:25</t>
-  </si>
-  <si>
     <t>05:15</t>
   </si>
   <si>
     <t>14:20</t>
   </si>
   <si>
+    <t>09:35</t>
+  </si>
+  <si>
+    <t>17:25</t>
+  </si>
+  <si>
+    <t>14,392</t>
+  </si>
+  <si>
     <t>Air India</t>
   </si>
   <si>
@@ -299,7 +311,7 @@
     <t>08:55</t>
   </si>
   <si>
-    <t>30,838</t>
+    <t>15,419</t>
   </si>
   <si>
     <t>13:30</t>
@@ -311,36 +323,54 @@
     <t>SpiceJet</t>
   </si>
   <si>
+    <t>08:40</t>
+  </si>
+  <si>
+    <t>17:05</t>
+  </si>
+  <si>
+    <t>18,108</t>
+  </si>
+  <si>
+    <t>AirAsia</t>
+  </si>
+  <si>
+    <t>20:40</t>
+  </si>
+  <si>
+    <t>15:25</t>
+  </si>
+  <si>
+    <t>01:25</t>
+  </si>
+  <si>
     <t>20:25</t>
   </si>
   <si>
     <t>08:00</t>
   </si>
   <si>
-    <t>33,840</t>
-  </si>
-  <si>
     <t>18:45</t>
   </si>
   <si>
     <t>21:05</t>
   </si>
   <si>
-    <t>08:40</t>
-  </si>
-  <si>
-    <t>17:05</t>
-  </si>
-  <si>
-    <t>36,216</t>
+    <t>09:45</t>
+  </si>
+  <si>
+    <t>22:15</t>
+  </si>
+  <si>
+    <t>07:05</t>
+  </si>
+  <si>
+    <t>21:10</t>
   </si>
   <si>
     <t>23:55</t>
   </si>
   <si>
-    <t>09:45</t>
-  </si>
-  <si>
     <t>12:30</t>
   </si>
   <si>
@@ -350,24 +380,45 @@
     <t>20:05</t>
   </si>
   <si>
-    <t>AirAsia</t>
-  </si>
-  <si>
-    <t>20:40</t>
-  </si>
-  <si>
-    <t>15:25</t>
-  </si>
-  <si>
-    <t>01:25</t>
+    <t>GO FIRST</t>
+  </si>
+  <si>
+    <t>02:40</t>
+  </si>
+  <si>
+    <t>07:45</t>
+  </si>
+  <si>
+    <t>10:55</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>18:20</t>
+  </si>
+  <si>
+    <t>00:10</t>
+  </si>
+  <si>
+    <t>00:30</t>
+  </si>
+  <si>
+    <t>06:50</t>
+  </si>
+  <si>
+    <t>14:30</t>
+  </si>
+  <si>
+    <t>20:50</t>
+  </si>
+  <si>
+    <t>19:45</t>
   </si>
   <si>
     <t>10:40</t>
   </si>
   <si>
-    <t>09:35</t>
-  </si>
-  <si>
     <t>12:25</t>
   </si>
   <si>
@@ -398,9 +449,6 @@
     <t>04:15</t>
   </si>
   <si>
-    <t>GO FIRST</t>
-  </si>
-  <si>
     <t>05:50</t>
   </si>
   <si>
@@ -446,15 +494,9 @@
     <t>05:20</t>
   </si>
   <si>
-    <t>07:20</t>
-  </si>
-  <si>
     <t>10:10</t>
   </si>
   <si>
-    <t>18:20</t>
-  </si>
-  <si>
     <t>22:25</t>
   </si>
   <si>
@@ -473,12 +515,12 @@
     <t>16:35</t>
   </si>
   <si>
-    <t>19:45</t>
-  </si>
-  <si>
     <t>04:25</t>
   </si>
   <si>
+    <t>20:20</t>
+  </si>
+  <si>
     <t>17:35</t>
   </si>
   <si>
@@ -488,27 +530,6 @@
     <t>22:40</t>
   </si>
   <si>
-    <t>10:55</t>
-  </si>
-  <si>
-    <t>16:30</t>
-  </si>
-  <si>
-    <t>00:10</t>
-  </si>
-  <si>
-    <t>00:30</t>
-  </si>
-  <si>
-    <t>07:45</t>
-  </si>
-  <si>
-    <t>14:30</t>
-  </si>
-  <si>
-    <t>20:50</t>
-  </si>
-  <si>
     <t>08:05</t>
   </si>
   <si>
@@ -533,9 +554,6 @@
     <t>11:45</t>
   </si>
   <si>
-    <t>17:25</t>
-  </si>
-  <si>
     <t>19:25</t>
   </si>
   <si>
@@ -551,39 +569,21 @@
     <t>08:10</t>
   </si>
   <si>
-    <t>20:20</t>
-  </si>
-  <si>
-    <t>22:15</t>
-  </si>
-  <si>
-    <t>07:05</t>
-  </si>
-  <si>
-    <t>21:10</t>
-  </si>
-  <si>
     <t>22:10</t>
   </si>
   <si>
     <t>23:40</t>
   </si>
   <si>
+    <t>20:00</t>
+  </si>
+  <si>
     <t>17:50</t>
   </si>
   <si>
     <t>15:05</t>
   </si>
   <si>
-    <t>02:40</t>
-  </si>
-  <si>
-    <t>06:50</t>
-  </si>
-  <si>
-    <t>20:00</t>
-  </si>
-  <si>
     <t>10:15</t>
   </si>
   <si>
@@ -596,6 +596,12 @@
     <t>07:25</t>
   </si>
   <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>05:55</t>
+  </si>
+  <si>
     <t>17:30</t>
   </si>
   <si>
@@ -605,10 +611,7 @@
     <t>14:55</t>
   </si>
   <si>
-    <t>15:00</t>
-  </si>
-  <si>
-    <t>05:55</t>
+    <t>14:00</t>
   </si>
   <si>
     <t>16:40</t>
@@ -617,24 +620,21 @@
     <t>03:55</t>
   </si>
   <si>
-    <t>14:00</t>
+    <t>16:45</t>
+  </si>
+  <si>
+    <t>15:10</t>
   </si>
   <si>
     <t>19:05</t>
   </si>
   <si>
-    <t>16:45</t>
-  </si>
-  <si>
     <t>10:20</t>
   </si>
   <si>
     <t>14:50</t>
   </si>
   <si>
-    <t>15:10</t>
-  </si>
-  <si>
     <t>12:40</t>
   </si>
   <si>
@@ -644,6 +644,9 @@
     <t>12:10</t>
   </si>
   <si>
+    <t>05:35</t>
+  </si>
+  <si>
     <t>04:55</t>
   </si>
   <si>
@@ -653,6 +656,12 @@
     <t>17:45</t>
   </si>
   <si>
+    <t>22:00</t>
+  </si>
+  <si>
+    <t>22:30</t>
+  </si>
+  <si>
     <t>05:45</t>
   </si>
   <si>
@@ -674,6 +683,9 @@
     <t>00:50</t>
   </si>
   <si>
+    <t>14:10</t>
+  </si>
+  <si>
     <t>05:00</t>
   </si>
   <si>
@@ -695,31 +707,19 @@
     <t>15:50</t>
   </si>
   <si>
-    <t>14:10</t>
-  </si>
-  <si>
-    <t>22:00</t>
-  </si>
-  <si>
-    <t>22:30</t>
-  </si>
-  <si>
     <t>10:05</t>
   </si>
   <si>
     <t>10:30</t>
   </si>
   <si>
-    <t>05:35</t>
-  </si>
-  <si>
     <t>20:10</t>
   </si>
   <si>
     <t>36,922</t>
   </si>
   <si>
-    <t>9,104</t>
+    <t>10,604</t>
   </si>
   <si>
     <t>12:35</t>
@@ -728,7 +728,7 @@
     <t>06:35</t>
   </si>
   <si>
-    <t>9,820</t>
+    <t>11,320</t>
   </si>
   <si>
     <t>01:15</t>
@@ -737,16 +737,19 @@
     <t>03:20</t>
   </si>
   <si>
-    <t>9,824</t>
-  </si>
-  <si>
-    <t>9,904</t>
+    <t>11,324</t>
+  </si>
+  <si>
+    <t>11,395</t>
   </si>
   <si>
     <t>21:35</t>
   </si>
   <si>
-    <t>11,160</t>
+    <t>12,655</t>
+  </si>
+  <si>
+    <t>12,660</t>
   </si>
   <si>
     <t>18:00</t>
@@ -755,7 +758,7 @@
     <t>14:05</t>
   </si>
   <si>
-    <t>11,164</t>
+    <t>12,664</t>
   </si>
   <si>
     <t>12:55</t>
@@ -773,7 +776,7 @@
     <t>16:25</t>
   </si>
   <si>
-    <t>12,004</t>
+    <t>13,504</t>
   </si>
   <si>
     <t>18:40</t>
@@ -782,265 +785,265 @@
     <t>22:05</t>
   </si>
   <si>
-    <t>14,000</t>
-  </si>
-  <si>
-    <t>14,216</t>
-  </si>
-  <si>
-    <t>14,592</t>
+    <t>15,500</t>
+  </si>
+  <si>
+    <t>16,092</t>
   </si>
   <si>
     <t>11:00</t>
   </si>
   <si>
-    <t>14,684</t>
-  </si>
-  <si>
-    <t>14,708</t>
-  </si>
-  <si>
-    <t>15,096</t>
+    <t>16,184</t>
+  </si>
+  <si>
+    <t>17,144</t>
+  </si>
+  <si>
+    <t>11:10</t>
+  </si>
+  <si>
+    <t>23:45</t>
+  </si>
+  <si>
+    <t>17,198</t>
+  </si>
+  <si>
+    <t>17,352</t>
+  </si>
+  <si>
+    <t>17,690</t>
+  </si>
+  <si>
+    <t>17,940</t>
+  </si>
+  <si>
+    <t>18,162</t>
   </si>
   <si>
     <t>09:40</t>
   </si>
   <si>
-    <t>15,324</t>
-  </si>
-  <si>
-    <t>15,420</t>
-  </si>
-  <si>
-    <t>15,644</t>
-  </si>
-  <si>
-    <t>11:10</t>
-  </si>
-  <si>
-    <t>23:45</t>
-  </si>
-  <si>
-    <t>15,852</t>
-  </si>
-  <si>
-    <t>16,428</t>
-  </si>
-  <si>
-    <t>16,440</t>
+    <t>18,306</t>
+  </si>
+  <si>
+    <t>18,402</t>
+  </si>
+  <si>
+    <t>21:50</t>
+  </si>
+  <si>
+    <t>07:50</t>
+  </si>
+  <si>
+    <t>18,672</t>
+  </si>
+  <si>
+    <t>19,410</t>
+  </si>
+  <si>
+    <t>19,584</t>
   </si>
   <si>
     <t>23:05</t>
   </si>
   <si>
-    <t>16,932</t>
-  </si>
-  <si>
-    <t>21:50</t>
-  </si>
-  <si>
-    <t>07:50</t>
-  </si>
-  <si>
-    <t>17,172</t>
-  </si>
-  <si>
-    <t>17,900</t>
-  </si>
-  <si>
-    <t>18,084</t>
+    <t>19,914</t>
   </si>
   <si>
     <t>02:00</t>
   </si>
   <si>
-    <t>19,080</t>
+    <t>20,580</t>
+  </si>
+  <si>
+    <t>20,832</t>
+  </si>
+  <si>
+    <t>05:30</t>
+  </si>
+  <si>
+    <t>06:55</t>
+  </si>
+  <si>
+    <t>20,966</t>
+  </si>
+  <si>
+    <t>21,224</t>
+  </si>
+  <si>
+    <t>21,548</t>
+  </si>
+  <si>
+    <t>15:55</t>
+  </si>
+  <si>
+    <t>21:40</t>
   </si>
   <si>
     <t>13:35</t>
   </si>
   <si>
-    <t>19,120</t>
+    <t>22,102</t>
+  </si>
+  <si>
+    <t>22,128</t>
   </si>
   <si>
     <t>09:20</t>
   </si>
   <si>
-    <t>19,160</t>
-  </si>
-  <si>
-    <t>19,332</t>
-  </si>
-  <si>
-    <t>05:30</t>
-  </si>
-  <si>
-    <t>06:55</t>
-  </si>
-  <si>
-    <t>19,724</t>
-  </si>
-  <si>
-    <t>19,756</t>
+    <t>22,142</t>
+  </si>
+  <si>
+    <t>18:55</t>
+  </si>
+  <si>
+    <t>22,512</t>
+  </si>
+  <si>
+    <t>22,738</t>
   </si>
   <si>
     <t>17:15</t>
   </si>
   <si>
-    <t>20,048</t>
-  </si>
-  <si>
-    <t>15:55</t>
-  </si>
-  <si>
-    <t>21:40</t>
-  </si>
-  <si>
     <t>17:10</t>
   </si>
   <si>
-    <t>20,104</t>
-  </si>
-  <si>
-    <t>20,628</t>
+    <t>23,086</t>
+  </si>
+  <si>
+    <t>16:55</t>
+  </si>
+  <si>
+    <t>23,836</t>
   </si>
   <si>
     <t>13:25</t>
   </si>
   <si>
-    <t>20,924</t>
-  </si>
-  <si>
-    <t>20,944</t>
-  </si>
-  <si>
-    <t>18:55</t>
-  </si>
-  <si>
-    <t>21,012</t>
-  </si>
-  <si>
-    <t>22,028</t>
-  </si>
-  <si>
-    <t>22,100</t>
+    <t>23,906</t>
+  </si>
+  <si>
+    <t>23,926</t>
+  </si>
+  <si>
+    <t>24,884</t>
+  </si>
+  <si>
+    <t>24,980</t>
+  </si>
+  <si>
+    <t>25,010</t>
+  </si>
+  <si>
+    <t>25,082</t>
   </si>
   <si>
     <t>00:35</t>
   </si>
   <si>
-    <t>16:55</t>
-  </si>
-  <si>
-    <t>22,336</t>
-  </si>
-  <si>
-    <t>22,604</t>
-  </si>
-  <si>
-    <t>23,044</t>
-  </si>
-  <si>
-    <t>23,384</t>
-  </si>
-  <si>
-    <t>23,480</t>
-  </si>
-  <si>
-    <t>23,708</t>
-  </si>
-  <si>
-    <t>23,820</t>
-  </si>
-  <si>
-    <t>23,896</t>
+    <t>25,269</t>
+  </si>
+  <si>
+    <t>25,396</t>
   </si>
   <si>
     <t>07:15</t>
   </si>
   <si>
-    <t>24,032</t>
+    <t>25,532</t>
+  </si>
+  <si>
+    <t>25,586</t>
+  </si>
+  <si>
+    <t>26,026</t>
   </si>
   <si>
     <t>02:25</t>
   </si>
   <si>
-    <t>24,528</t>
+    <t>26,028</t>
   </si>
   <si>
     <t>07:40</t>
   </si>
   <si>
-    <t>24,660</t>
-  </si>
-  <si>
-    <t>25,500</t>
-  </si>
-  <si>
-    <t>25,760</t>
-  </si>
-  <si>
-    <t>25,988</t>
-  </si>
-  <si>
-    <t>26,036</t>
-  </si>
-  <si>
-    <t>26,124</t>
-  </si>
-  <si>
-    <t>26,760</t>
-  </si>
-  <si>
-    <t>26,844</t>
-  </si>
-  <si>
-    <t>26,896</t>
-  </si>
-  <si>
-    <t>27,748</t>
-  </si>
-  <si>
-    <t>28,508</t>
-  </si>
-  <si>
-    <t>29,004</t>
-  </si>
-  <si>
-    <t>29,876</t>
+    <t>26,690</t>
+  </si>
+  <si>
+    <t>26,949</t>
+  </si>
+  <si>
+    <t>27,260</t>
+  </si>
+  <si>
+    <t>27,488</t>
+  </si>
+  <si>
+    <t>27,536</t>
+  </si>
+  <si>
+    <t>27,624</t>
+  </si>
+  <si>
+    <t>27,726</t>
+  </si>
+  <si>
+    <t>28,209</t>
+  </si>
+  <si>
+    <t>29,248</t>
+  </si>
+  <si>
+    <t>29,826</t>
+  </si>
+  <si>
+    <t>29,878</t>
+  </si>
+  <si>
+    <t>30,504</t>
+  </si>
+  <si>
+    <t>31,376</t>
+  </si>
+  <si>
+    <t>31,501</t>
   </si>
   <si>
     <t>11:15</t>
   </si>
   <si>
-    <t>33,272</t>
+    <t>34,772</t>
   </si>
   <si>
     <t>18:25</t>
   </si>
   <si>
-    <t>37,604</t>
-  </si>
-  <si>
-    <t>42,344</t>
-  </si>
-  <si>
-    <t>46,004</t>
-  </si>
-  <si>
-    <t>51,960</t>
-  </si>
-  <si>
-    <t>35,503</t>
+    <t>39,104</t>
+  </si>
+  <si>
+    <t>43,844</t>
+  </si>
+  <si>
+    <t>48,986</t>
+  </si>
+  <si>
+    <t>54,858</t>
+  </si>
+  <si>
+    <t>51,709</t>
   </si>
   <si>
     <t>19:40</t>
   </si>
   <si>
-    <t>39,615</t>
-  </si>
-  <si>
-    <t>41,631</t>
+    <t>56,477</t>
+  </si>
+  <si>
+    <t>59,501</t>
   </si>
 </sst>
 </file>
@@ -1397,7 +1400,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1468,13 +1471,13 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1491,7 +1494,7 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2389,10 +2392,10 @@
         <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
         <v>73</v>
@@ -2403,10 +2406,10 @@
         <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
         <v>73</v>
@@ -2417,10 +2420,10 @@
         <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
         <v>73</v>
@@ -2434,7 +2437,7 @@
         <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
         <v>73</v>
@@ -2442,27 +2445,27 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
         <v>83</v>
       </c>
-      <c r="B17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" t="s">
-        <v>85</v>
-      </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
         <v>86</v>
@@ -2470,88 +2473,82 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" t="s">
         <v>89</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>90</v>
-      </c>
-      <c r="C19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s">
         <v>99</v>
@@ -2562,7 +2559,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
         <v>101</v>
@@ -2573,21 +2570,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" t="s">
         <v>103</v>
       </c>
-      <c r="B27" t="s">
-        <v>48</v>
-      </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
         <v>104</v>
@@ -2595,18 +2592,18 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B30" t="s">
         <v>105</v>
@@ -2617,65 +2614,65 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
         <v>108</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
         <v>115</v>
@@ -2683,7 +2680,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s">
         <v>116</v>
@@ -2694,211 +2691,211 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s">
         <v>118</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
         <v>119</v>
-      </c>
-      <c r="B40" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C47" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C50" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C52" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C54" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B55" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C55" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="C56" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57">
@@ -2906,142 +2903,142 @@
         <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C57" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="B58" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C58" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="C62" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C63" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="B64" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C64" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="B65" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C65" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="B66" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C66" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B67" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C67" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B68" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="C68" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="C69" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70">
@@ -3052,7 +3049,7 @@
         <v>78</v>
       </c>
       <c r="C70" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71">
@@ -3060,10 +3057,10 @@
         <v>58</v>
       </c>
       <c r="B71" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="C71" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72">
@@ -3071,293 +3068,293 @@
         <v>58</v>
       </c>
       <c r="B72" t="s">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="C73" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="B74" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C74" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="B75" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="C75" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="B76" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C76" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="C77" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="B78" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C78" t="s">
-        <v>169</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="B79" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="C79" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="B80" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="C80" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="B81" t="s">
-        <v>172</v>
+        <v>48</v>
       </c>
       <c r="C81" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="B82" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C82" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="B83" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C83" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="B84" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="C84" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="B85" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="C85" t="s">
-        <v>175</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="B86" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="C86" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="C87" t="s">
-        <v>32</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B88" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C88" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B89" t="s">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="C89" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="B90" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C90" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="C92" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C93" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>179</v>
+        <v>65</v>
       </c>
       <c r="C94" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="C95" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B96" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="C96" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B97" t="s">
+        <v>178</v>
+      </c>
+      <c r="C97" t="s">
         <v>32</v>
-      </c>
-      <c r="C97" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B98" t="s">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="C98" t="s">
         <v>32</v>
@@ -3365,10 +3362,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B99" t="s">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="C99" t="s">
         <v>32</v>
@@ -3376,131 +3373,131 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B100" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="C100" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="B101" t="s">
-        <v>181</v>
+        <v>30</v>
       </c>
       <c r="C101" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B102" t="s">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="C102" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B103" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C103" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B104" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="C104" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="B105" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="C105" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B106" t="s">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="C106" t="s">
-        <v>45</v>
+        <v>183</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="B107" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C107" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="B108" t="s">
-        <v>187</v>
+        <v>69</v>
       </c>
       <c r="C108" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="B109" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="C109" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="B110" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C110" t="s">
-        <v>188</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="B111" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C111" t="s">
         <v>188</v>
@@ -3508,373 +3505,373 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="B112" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C112" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="C113" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>191</v>
+      </c>
+      <c r="C114" t="s">
         <v>119</v>
-      </c>
-      <c r="B114" t="s">
-        <v>192</v>
-      </c>
-      <c r="C114" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="C115" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>53</v>
+        <v>190</v>
       </c>
       <c r="C116" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B117" t="s">
+        <v>191</v>
+      </c>
+      <c r="C117" t="s">
         <v>192</v>
-      </c>
-      <c r="C117" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B118" t="s">
-        <v>192</v>
+        <v>65</v>
       </c>
       <c r="C118" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B119" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="C119" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B120" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B121" t="s">
         <v>194</v>
       </c>
       <c r="C121" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B122" t="s">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="C122" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B123" t="s">
+        <v>65</v>
+      </c>
+      <c r="C123" t="s">
         <v>195</v>
-      </c>
-      <c r="C123" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B124" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C124" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B125" t="s">
-        <v>198</v>
+        <v>31</v>
       </c>
       <c r="C125" t="s">
-        <v>199</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B126" t="s">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="C126" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="B127" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C127" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B128" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C128" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B129" t="s">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="C129" t="s">
-        <v>32</v>
+        <v>199</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B130" t="s">
-        <v>24</v>
+        <v>201</v>
       </c>
       <c r="C130" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B131" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="C131" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B132" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="C132" t="s">
-        <v>115</v>
+        <v>203</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B133" t="s">
-        <v>204</v>
+        <v>94</v>
       </c>
       <c r="C133" t="s">
-        <v>205</v>
+        <v>32</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B134" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C134" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="B135" t="s">
-        <v>192</v>
+        <v>24</v>
       </c>
       <c r="C135" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="B136" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="C136" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B137" t="s">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c r="C137" t="s">
-        <v>138</v>
+        <v>208</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B138" t="s">
         <v>207</v>
       </c>
       <c r="C138" t="s">
-        <v>36</v>
+        <v>200</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="B139" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="C139" t="s">
-        <v>114</v>
+        <v>209</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B140" t="s">
-        <v>37</v>
+        <v>193</v>
       </c>
       <c r="C140" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B141" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="C141" t="s">
-        <v>205</v>
+        <v>36</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B142" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="C142" t="s">
-        <v>209</v>
+        <v>131</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B143" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="C143" t="s">
-        <v>210</v>
+        <v>131</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B144" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="C144" t="s">
-        <v>112</v>
+        <v>208</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B145" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="C145" t="s">
         <v>212</v>
@@ -3882,186 +3879,186 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B146" t="s">
+        <v>183</v>
+      </c>
+      <c r="C146" t="s">
         <v>213</v>
-      </c>
-      <c r="C146" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B147" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C147" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B148" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="C148" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B149" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C149" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B150" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C150" t="s">
-        <v>214</v>
+        <v>92</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B151" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C151" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B152" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="C152" t="s">
-        <v>143</v>
+        <v>218</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B153" t="s">
+        <v>220</v>
+      </c>
+      <c r="C153" t="s">
         <v>218</v>
-      </c>
-      <c r="C153" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B154" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C154" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B155" t="s">
-        <v>88</v>
+        <v>202</v>
       </c>
       <c r="C155" t="s">
-        <v>115</v>
+        <v>221</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B156" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
       <c r="C156" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B157" t="s">
-        <v>219</v>
+        <v>92</v>
       </c>
       <c r="C157" t="s">
-        <v>220</v>
+        <v>132</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B158" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C158" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B159" t="s">
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="C159" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B160" t="s">
-        <v>69</v>
+        <v>222</v>
       </c>
       <c r="C160" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B161" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C161" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B162" t="s">
-        <v>222</v>
+        <v>59</v>
       </c>
       <c r="C162" t="s">
         <v>32</v>
@@ -4069,7 +4066,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B163" t="s">
         <v>223</v>
@@ -4080,13 +4077,13 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B164" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C164" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4121,7 +4118,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
         <v>224</v>
@@ -4135,7 +4132,7 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -4149,10 +4146,10 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
         <v>225</v>
@@ -4193,7 +4190,7 @@
         <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>226</v>
@@ -4207,7 +4204,7 @@
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
         <v>226</v>
@@ -4218,7 +4215,7 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C4" t="s">
         <v>227</v>
@@ -4229,10 +4226,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
         <v>228</v>
@@ -4260,10 +4257,10 @@
         <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
         <v>232</v>
@@ -4271,13 +4268,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
         <v>233</v>
@@ -4285,13 +4282,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D9" t="s">
         <v>233</v>
@@ -4299,10 +4296,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C10" t="s">
         <v>234</v>
@@ -4313,13 +4310,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>176</v>
       </c>
       <c r="D11" t="s">
         <v>235</v>
@@ -4327,128 +4324,128 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="D13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="D15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" t="s">
         <v>236</v>
-      </c>
-      <c r="D16" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>237</v>
       </c>
       <c r="D17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>219</v>
+        <v>145</v>
       </c>
       <c r="D18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>205</v>
       </c>
       <c r="D19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="B20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s">
-        <v>237</v>
+        <v>132</v>
       </c>
       <c r="D20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21">
@@ -4456,13 +4453,13 @@
         <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>238</v>
       </c>
       <c r="D21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22">
@@ -4470,13 +4467,13 @@
         <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23">
@@ -4484,13 +4481,13 @@
         <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D23" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24">
@@ -4498,13 +4495,13 @@
         <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25">
@@ -4512,13 +4509,13 @@
         <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" t="s">
         <v>239</v>
-      </c>
-      <c r="D25" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="26">
@@ -4526,13 +4523,13 @@
         <v>58</v>
       </c>
       <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
         <v>240</v>
       </c>
-      <c r="C26" t="s">
-        <v>241</v>
-      </c>
       <c r="D26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27">
@@ -4540,27 +4537,27 @@
         <v>58</v>
       </c>
       <c r="B27" t="s">
+        <v>241</v>
+      </c>
+      <c r="C27" t="s">
         <v>242</v>
       </c>
-      <c r="C27" t="s">
-        <v>163</v>
-      </c>
       <c r="D27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>180</v>
+        <v>243</v>
       </c>
       <c r="C28" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29">
@@ -4568,13 +4565,13 @@
         <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D29" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30">
@@ -4582,13 +4579,13 @@
         <v>58</v>
       </c>
       <c r="B30" t="s">
+        <v>246</v>
+      </c>
+      <c r="C30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" t="s">
         <v>245</v>
-      </c>
-      <c r="C30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="31">
@@ -4596,13 +4593,13 @@
         <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32">
@@ -4610,66 +4607,66 @@
         <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="D32" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C33" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="D33" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="C34" t="s">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="D34" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>174</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>250</v>
       </c>
       <c r="D35" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>250</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
         <v>251</v>
@@ -4677,13 +4674,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D37" t="s">
         <v>251</v>
@@ -4691,13 +4688,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>247</v>
       </c>
       <c r="D38" t="s">
         <v>251</v>
@@ -4705,27 +4702,27 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="C39" t="s">
-        <v>246</v>
+        <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>194</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>171</v>
+        <v>253</v>
       </c>
       <c r="D40" t="s">
         <v>252</v>
@@ -4733,13 +4730,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>254</v>
       </c>
       <c r="D41" t="s">
         <v>252</v>
@@ -4747,167 +4744,167 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="D42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="C43" t="s">
-        <v>217</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="C44" t="s">
         <v>254</v>
       </c>
       <c r="D44" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>218</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D45" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D46" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="C47" t="s">
-        <v>254</v>
+        <v>157</v>
       </c>
       <c r="D47" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>254</v>
+        <v>157</v>
       </c>
       <c r="D48" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>218</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>253</v>
       </c>
       <c r="D49" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
+        <v>254</v>
       </c>
       <c r="D50" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="C52" t="s">
-        <v>96</v>
+        <v>221</v>
       </c>
       <c r="D52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C53" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="D53" t="s">
         <v>256</v>
@@ -4915,13 +4912,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="C54" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="D54" t="s">
         <v>256</v>
@@ -4932,24 +4929,24 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="C55" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="D55" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="C56" t="s">
-        <v>258</v>
+        <v>106</v>
       </c>
       <c r="D56" t="s">
         <v>257</v>
@@ -4957,13 +4954,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>259</v>
+        <v>59</v>
       </c>
       <c r="D57" t="s">
         <v>257</v>
@@ -4974,13 +4971,13 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="C58" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" t="s">
         <v>258</v>
-      </c>
-      <c r="D58" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="59">
@@ -4988,13 +4985,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D59" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60">
@@ -5002,178 +4999,178 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>190</v>
+        <v>81</v>
       </c>
       <c r="C60" t="s">
-        <v>259</v>
+        <v>48</v>
       </c>
       <c r="D60" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B61" t="s">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="C61" t="s">
-        <v>91</v>
+        <v>221</v>
       </c>
       <c r="D61" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B62" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>104</v>
+        <v>221</v>
       </c>
       <c r="D62" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C63" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="D63" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="C64" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D64" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>214</v>
+        <v>107</v>
       </c>
       <c r="C65" t="s">
-        <v>258</v>
+        <v>132</v>
       </c>
       <c r="D65" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D66" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C67" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="D67" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B68" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="C68" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="D68" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B69" t="s">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D69" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="C70" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="D70" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B71" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C71" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="D71" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="C72" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D72" t="s">
         <v>262</v>
@@ -5181,13 +5178,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="C73" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="D73" t="s">
         <v>262</v>
@@ -5198,38 +5195,38 @@
         <v>58</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="C74" t="s">
-        <v>48</v>
+        <v>264</v>
       </c>
       <c r="D74" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C75" t="s">
-        <v>263</v>
+        <v>179</v>
       </c>
       <c r="D75" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="B76" t="s">
-        <v>265</v>
+        <v>134</v>
       </c>
       <c r="C76" t="s">
-        <v>266</v>
+        <v>208</v>
       </c>
       <c r="D76" t="s">
         <v>267</v>
@@ -5237,41 +5234,41 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B77" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="C77" t="s">
-        <v>171</v>
+        <v>268</v>
       </c>
       <c r="D77" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B78" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C78" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="D78" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="C79" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="D79" t="s">
         <v>271</v>
@@ -5279,83 +5276,83 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="B80" t="s">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="C80" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="D80" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B81" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="C81" t="s">
+        <v>164</v>
+      </c>
+      <c r="D81" t="s">
         <v>272</v>
-      </c>
-      <c r="D81" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B82" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C82" t="s">
-        <v>274</v>
+        <v>167</v>
       </c>
       <c r="D82" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B83" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="C83" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="D83" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="C84" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="D84" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>277</v>
+        <v>41</v>
       </c>
       <c r="C85" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="D85" t="s">
         <v>276</v>
@@ -5363,209 +5360,209 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="B86" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C86" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D86" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="B87" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C87" t="s">
         <v>278</v>
       </c>
       <c r="D87" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B88" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="C88" t="s">
-        <v>217</v>
+        <v>146</v>
       </c>
       <c r="D88" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="B89" t="s">
-        <v>179</v>
+        <v>279</v>
       </c>
       <c r="C89" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="D89" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="C90" t="s">
-        <v>139</v>
+        <v>280</v>
       </c>
       <c r="D90" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="B91" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="C91" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D91" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="B92" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="C92" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="D92" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B93" t="s">
-        <v>31</v>
+        <v>188</v>
       </c>
       <c r="C93" t="s">
-        <v>139</v>
+        <v>283</v>
       </c>
       <c r="D93" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B94" t="s">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="C94" t="s">
-        <v>109</v>
+        <v>268</v>
       </c>
       <c r="D94" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="C95" t="s">
-        <v>130</v>
+        <v>285</v>
       </c>
       <c r="D95" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B96" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="C96" t="s">
-        <v>283</v>
+        <v>153</v>
       </c>
       <c r="D96" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B97" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="C97" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="D97" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B98" t="s">
-        <v>284</v>
+        <v>31</v>
       </c>
       <c r="C98" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="D98" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B99" t="s">
-        <v>245</v>
+        <v>31</v>
       </c>
       <c r="C99" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D99" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B100" t="s">
-        <v>194</v>
+        <v>31</v>
       </c>
       <c r="C100" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="D100" t="s">
         <v>287</v>
@@ -5573,13 +5570,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B101" t="s">
-        <v>194</v>
+        <v>26</v>
       </c>
       <c r="C101" t="s">
-        <v>270</v>
+        <v>126</v>
       </c>
       <c r="D101" t="s">
         <v>287</v>
@@ -5587,153 +5584,153 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B102" t="s">
-        <v>172</v>
+        <v>246</v>
       </c>
       <c r="C102" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D102" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="B103" t="s">
-        <v>32</v>
+        <v>250</v>
       </c>
       <c r="C103" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D103" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="B104" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C104" t="s">
-        <v>94</v>
+        <v>291</v>
       </c>
       <c r="D104" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="B105" t="s">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c r="C105" t="s">
-        <v>94</v>
+        <v>291</v>
       </c>
       <c r="D105" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B106" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D106" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B107" t="s">
-        <v>218</v>
+        <v>32</v>
       </c>
       <c r="C107" t="s">
-        <v>138</v>
+        <v>293</v>
       </c>
       <c r="D107" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B108" t="s">
-        <v>219</v>
+        <v>91</v>
       </c>
       <c r="C108" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="D108" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B109" t="s">
-        <v>219</v>
+        <v>88</v>
       </c>
       <c r="C109" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="D109" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>219</v>
+        <v>153</v>
       </c>
       <c r="C110" t="s">
-        <v>295</v>
+        <v>184</v>
       </c>
       <c r="D110" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>250</v>
+        <v>136</v>
       </c>
       <c r="C111" t="s">
+        <v>144</v>
+      </c>
+      <c r="D111" t="s">
         <v>296</v>
-      </c>
-      <c r="D111" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="C112" t="s">
-        <v>296</v>
+        <v>102</v>
       </c>
       <c r="D112" t="s">
         <v>297</v>
@@ -5741,41 +5738,41 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B113" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="C113" t="s">
-        <v>296</v>
+        <v>152</v>
       </c>
       <c r="D113" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B114" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="C114" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="D114" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B115" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="C115" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="D115" t="s">
         <v>299</v>
@@ -5783,13 +5780,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B116" t="s">
-        <v>59</v>
+        <v>205</v>
       </c>
       <c r="C116" t="s">
-        <v>94</v>
+        <v>300</v>
       </c>
       <c r="D116" t="s">
         <v>299</v>
@@ -5797,55 +5794,55 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="B117" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="C117" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D117" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="B118" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="C118" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D118" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="B119" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="C119" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="D119" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="B120" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C120" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D120" t="s">
         <v>301</v>
@@ -5853,181 +5850,181 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="B121" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C121" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="D121" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="B122" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C122" t="s">
-        <v>281</v>
+        <v>190</v>
       </c>
       <c r="D122" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="B123" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="C123" t="s">
-        <v>91</v>
+        <v>300</v>
       </c>
       <c r="D123" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="B124" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="C124" t="s">
-        <v>188</v>
+        <v>300</v>
       </c>
       <c r="D124" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="B125" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C125" t="s">
-        <v>76</v>
+        <v>303</v>
       </c>
       <c r="D125" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="B126" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>99</v>
+        <v>303</v>
       </c>
       <c r="D126" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="B127" t="s">
-        <v>195</v>
+        <v>84</v>
       </c>
       <c r="C127" t="s">
-        <v>227</v>
+        <v>145</v>
       </c>
       <c r="D127" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="B128" t="s">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="C128" t="s">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="D128" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B129" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="D129" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B130" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="C130" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D130" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B131" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C131" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D131" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B132" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C132" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D132" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="B133" t="s">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="C133" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="D133" t="s">
         <v>304</v>
@@ -6035,94 +6032,94 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B134" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="C134" t="s">
-        <v>129</v>
+        <v>211</v>
       </c>
       <c r="D134" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B135" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C135" t="s">
-        <v>305</v>
+        <v>104</v>
       </c>
       <c r="D135" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B136" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="C136" t="s">
-        <v>295</v>
+        <v>104</v>
       </c>
       <c r="D136" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B137" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C137" t="s">
-        <v>295</v>
+        <v>104</v>
       </c>
       <c r="D137" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B138" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="C138" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="D138" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="B139" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C139" t="s">
-        <v>129</v>
+        <v>309</v>
       </c>
       <c r="D139" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B140" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="C140" t="s">
         <v>307</v>
@@ -6133,13 +6130,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B141" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="C141" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D141" t="s">
         <v>308</v>
@@ -6147,44 +6144,44 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B142" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C142" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="D142" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B143" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="C143" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="D143" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="B144" t="s">
-        <v>219</v>
+        <v>279</v>
       </c>
       <c r="C144" t="s">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="D144" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="145">
@@ -6192,10 +6189,10 @@
         <v>22</v>
       </c>
       <c r="B145" t="s">
-        <v>284</v>
+        <v>65</v>
       </c>
       <c r="C145" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="D145" t="s">
         <v>311</v>
@@ -6203,27 +6200,27 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="B146" t="s">
-        <v>65</v>
+        <v>273</v>
       </c>
       <c r="C146" t="s">
-        <v>258</v>
+        <v>190</v>
       </c>
       <c r="D146" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B147" t="s">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="C147" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="D147" t="s">
         <v>312</v>
@@ -6231,41 +6228,41 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="B148" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="C148" t="s">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="D148" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B149" t="s">
-        <v>236</v>
+        <v>54</v>
       </c>
       <c r="C149" t="s">
-        <v>222</v>
+        <v>99</v>
       </c>
       <c r="D149" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B150" t="s">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="C150" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D150" t="s">
         <v>314</v>
@@ -6273,30 +6270,30 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B151" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="C151" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="D151" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B152" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="C152" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="D152" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="153">
@@ -6304,13 +6301,13 @@
         <v>22</v>
       </c>
       <c r="B153" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C153" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D153" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="154">
@@ -6318,167 +6315,167 @@
         <v>22</v>
       </c>
       <c r="B154" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C154" t="s">
         <v>59</v>
       </c>
       <c r="D154" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B155" t="s">
-        <v>188</v>
+        <v>288</v>
       </c>
       <c r="C155" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D155" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B156" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C156" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="D156" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B157" t="s">
-        <v>281</v>
+        <v>202</v>
       </c>
       <c r="C157" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="D157" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="B158" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="C158" t="s">
-        <v>272</v>
+        <v>155</v>
       </c>
       <c r="D158" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B159" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="C159" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="D159" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B160" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="C160" t="s">
-        <v>153</v>
+        <v>280</v>
       </c>
       <c r="D160" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B161" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C161" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D161" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B162" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C162" t="s">
+        <v>326</v>
+      </c>
+      <c r="D162" t="s">
         <v>325</v>
-      </c>
-      <c r="D162" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B163" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C163" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D163" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B164" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C164" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D164" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B165" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C165" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D165" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="166">
@@ -6489,10 +6486,10 @@
         <v>40</v>
       </c>
       <c r="C166" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D166" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="167">
@@ -6500,13 +6497,13 @@
         <v>22</v>
       </c>
       <c r="B167" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C167" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D167" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="168">
@@ -6517,10 +6514,10 @@
         <v>40</v>
       </c>
       <c r="C168" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D168" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="169">
@@ -6528,13 +6525,13 @@
         <v>22</v>
       </c>
       <c r="B169" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C169" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D169" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="170">
@@ -6542,13 +6539,13 @@
         <v>22</v>
       </c>
       <c r="B170" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C170" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D170" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="171">
@@ -6556,13 +6553,13 @@
         <v>22</v>
       </c>
       <c r="B171" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C171" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D171" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="172">
@@ -6570,13 +6567,13 @@
         <v>22</v>
       </c>
       <c r="B172" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C172" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D172" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="173">
@@ -6584,13 +6581,13 @@
         <v>22</v>
       </c>
       <c r="B173" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C173" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D173" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -6631,7 +6628,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3">
@@ -6639,13 +6636,13 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4">
@@ -6653,13 +6650,13 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5">
@@ -6673,7 +6670,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6">
@@ -6681,13 +6678,13 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7">
@@ -6695,13 +6692,13 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8">
@@ -6709,13 +6706,13 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9">
@@ -6723,13 +6720,13 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10">
@@ -6737,13 +6734,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11">
@@ -6751,13 +6748,13 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12">
@@ -6771,7 +6768,7 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13">
@@ -6779,13 +6776,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14">
@@ -6793,13 +6790,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15">
@@ -6807,13 +6804,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16">
@@ -6821,13 +6818,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17">
@@ -6835,13 +6832,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18">
@@ -6855,7 +6852,7 @@
         <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19">
@@ -6869,7 +6866,7 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20">
@@ -6877,13 +6874,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21">
@@ -6897,7 +6894,7 @@
         <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22">
@@ -6905,13 +6902,13 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/EaseMyTrip/src/test/resources/objectrepository/FlightDetails.xlsx
+++ b/EaseMyTrip/src/test/resources/objectrepository/FlightDetails.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/savithaselvaraj/git/EaseMyTrip/EaseMyTrip/src/test/resources/objectrepository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F200D1-559B-0648-B593-442054D1F30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CDFF06-230C-1F45-8716-1B7C7BAF7053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{D3F5C180-57E5-144C-A0BD-109FA2060A8F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28380" windowHeight="15800" xr2:uid="{D3F5C180-57E5-144C-A0BD-109FA2060A8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Search" sheetId="1" r:id="rId1"/>
-    <sheet name="Mumbai-Chennai-01-10 18-59" r:id="rId5" sheetId="2"/>
-    <sheet name="Delhi-Bangalore-01-10 19-00" r:id="rId6" sheetId="3"/>
-    <sheet name="Chennai-Delhi-01-10 19-00" r:id="rId7" sheetId="4"/>
-    <sheet name="Delhi-Mumbai-01-10 19-00" r:id="rId8" sheetId="5"/>
-    <sheet name="Bangalore-Chennai-01-10 19-00" r:id="rId9" sheetId="6"/>
+    <sheet name="Mumbai-Chennai-01-11 23-12" r:id="rId5" sheetId="2"/>
+    <sheet name="Delhi-Kolkata-01-11 23-12" r:id="rId6" sheetId="3"/>
+    <sheet name="Chennai-Delhi-01-11 23-13" r:id="rId7" sheetId="4"/>
+    <sheet name="Delhi-Mumbai-01-11 23-13" r:id="rId8" sheetId="5"/>
+    <sheet name="Bangalore-Chennai-01-11 23-13" r:id="rId9" sheetId="6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="359">
   <si>
     <t>From</t>
   </si>
@@ -95,6 +95,9 @@
     <t>7/1/2022</t>
   </si>
   <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
     <t>Flights</t>
   </si>
   <si>
@@ -116,7 +119,7 @@
     <t>16:20</t>
   </si>
   <si>
-    <t>64,156</t>
+    <t>63,706</t>
   </si>
   <si>
     <t>06:00</t>
@@ -143,7 +146,7 @@
     <t>10:25</t>
   </si>
   <si>
-    <t>65,631</t>
+    <t>64,511</t>
   </si>
   <si>
     <t>15:45</t>
@@ -158,12 +161,15 @@
     <t>08:45</t>
   </si>
   <si>
-    <t>67,311</t>
+    <t>67,096</t>
   </si>
   <si>
     <t>07:30</t>
   </si>
   <si>
+    <t>19:45</t>
+  </si>
+  <si>
     <t>11:30</t>
   </si>
   <si>
@@ -182,868 +188,934 @@
     <t>95,827</t>
   </si>
   <si>
-    <t>95,948</t>
+    <t>09:05</t>
+  </si>
+  <si>
+    <t>98,772</t>
+  </si>
+  <si>
+    <t>07:00</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>19:10</t>
+  </si>
+  <si>
+    <t>10:45</t>
+  </si>
+  <si>
+    <t>99,472</t>
+  </si>
+  <si>
+    <t>06:15</t>
+  </si>
+  <si>
+    <t>08:20</t>
+  </si>
+  <si>
+    <t>8,895</t>
+  </si>
+  <si>
+    <t>09:35</t>
+  </si>
+  <si>
+    <t>17:30</t>
+  </si>
+  <si>
+    <t>19:35</t>
+  </si>
+  <si>
+    <t>20:30</t>
+  </si>
+  <si>
+    <t>Air India</t>
+  </si>
+  <si>
+    <t>06:50</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>8,937</t>
+  </si>
+  <si>
+    <t>22:20</t>
+  </si>
+  <si>
+    <t>10,200</t>
+  </si>
+  <si>
+    <t>12:10</t>
+  </si>
+  <si>
+    <t>14:30</t>
+  </si>
+  <si>
+    <t>GO FIRST</t>
+  </si>
+  <si>
+    <t>16:40</t>
+  </si>
+  <si>
+    <t>21:35</t>
+  </si>
+  <si>
+    <t>10,536</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>Indigo</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>17:40</t>
+  </si>
+  <si>
+    <t>10,851</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>05:00</t>
+  </si>
+  <si>
+    <t>07:50</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>21:20</t>
+  </si>
+  <si>
+    <t>11,616</t>
   </si>
   <si>
     <t>16:05</t>
   </si>
   <si>
-    <t>10:45</t>
-  </si>
-  <si>
-    <t>99,472</t>
-  </si>
-  <si>
-    <t>21:00</t>
-  </si>
-  <si>
-    <t>104,762</t>
-  </si>
-  <si>
-    <t>19:10</t>
-  </si>
-  <si>
-    <t>07:00</t>
-  </si>
-  <si>
-    <t>105,322</t>
-  </si>
-  <si>
-    <t>09:05</t>
-  </si>
-  <si>
-    <t>105,882</t>
-  </si>
-  <si>
-    <t>Indigo</t>
+    <t>11,631</t>
+  </si>
+  <si>
+    <t>13:15</t>
+  </si>
+  <si>
+    <t>12:20</t>
+  </si>
+  <si>
+    <t>08:55</t>
+  </si>
+  <si>
+    <t>23:00</t>
+  </si>
+  <si>
+    <t>12,984</t>
+  </si>
+  <si>
+    <t>05:45</t>
+  </si>
+  <si>
+    <t>13,497</t>
+  </si>
+  <si>
+    <t>AirAsia</t>
+  </si>
+  <si>
+    <t>07:10</t>
+  </si>
+  <si>
+    <t>23:10</t>
+  </si>
+  <si>
+    <t>21:25</t>
+  </si>
+  <si>
+    <t>23:40</t>
+  </si>
+  <si>
+    <t>16:50</t>
+  </si>
+  <si>
+    <t>19:15</t>
+  </si>
+  <si>
+    <t>08:40</t>
+  </si>
+  <si>
+    <t>13,500</t>
+  </si>
+  <si>
+    <t>10:05</t>
   </si>
   <si>
     <t>21:15</t>
   </si>
   <si>
-    <t>02:30</t>
-  </si>
-  <si>
-    <t>12,776</t>
+    <t>23:20</t>
+  </si>
+  <si>
+    <t>22:30</t>
+  </si>
+  <si>
+    <t>00:35</t>
+  </si>
+  <si>
+    <t>05:55</t>
+  </si>
+  <si>
+    <t>08:05</t>
+  </si>
+  <si>
+    <t>15:10</t>
+  </si>
+  <si>
+    <t>17:20</t>
+  </si>
+  <si>
+    <t>17:15</t>
+  </si>
+  <si>
+    <t>19:25</t>
+  </si>
+  <si>
+    <t>SpiceJet</t>
+  </si>
+  <si>
+    <t>18:20</t>
+  </si>
+  <si>
+    <t>20:40</t>
+  </si>
+  <si>
+    <t>07:15</t>
+  </si>
+  <si>
+    <t>09:30</t>
+  </si>
+  <si>
+    <t>09:15</t>
+  </si>
+  <si>
+    <t>11:40</t>
+  </si>
+  <si>
+    <t>14:05</t>
+  </si>
+  <si>
+    <t>18:40</t>
+  </si>
+  <si>
+    <t>05:20</t>
+  </si>
+  <si>
+    <t>07:20</t>
+  </si>
+  <si>
+    <t>13:05</t>
+  </si>
+  <si>
+    <t>06:05</t>
+  </si>
+  <si>
+    <t>14:35</t>
+  </si>
+  <si>
+    <t>20:05</t>
+  </si>
+  <si>
+    <t>07:25</t>
+  </si>
+  <si>
+    <t>13,740</t>
+  </si>
+  <si>
+    <t>21:10</t>
+  </si>
+  <si>
+    <t>13,812</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>09:45</t>
+  </si>
+  <si>
+    <t>07:05</t>
+  </si>
+  <si>
+    <t>18:45</t>
+  </si>
+  <si>
+    <t>08:25</t>
+  </si>
+  <si>
+    <t>14,655</t>
+  </si>
+  <si>
+    <t>14,820</t>
+  </si>
+  <si>
+    <t>05:40</t>
+  </si>
+  <si>
+    <t>12:30</t>
   </si>
   <si>
     <t>17:55</t>
   </si>
   <si>
-    <t>23:59</t>
-  </si>
-  <si>
-    <t>02:15</t>
+    <t>14,919</t>
+  </si>
+  <si>
+    <t>03:00</t>
+  </si>
+  <si>
+    <t>05:10</t>
+  </si>
+  <si>
+    <t>14,955</t>
+  </si>
+  <si>
+    <t>15,033</t>
+  </si>
+  <si>
+    <t>10:20</t>
+  </si>
+  <si>
+    <t>15,159</t>
+  </si>
+  <si>
+    <t>16,155</t>
+  </si>
+  <si>
+    <t>13:45</t>
+  </si>
+  <si>
+    <t>18:35</t>
+  </si>
+  <si>
+    <t>16,260</t>
+  </si>
+  <si>
+    <t>10:35</t>
+  </si>
+  <si>
+    <t>16:15</t>
+  </si>
+  <si>
+    <t>16,512</t>
+  </si>
+  <si>
+    <t>13:55</t>
+  </si>
+  <si>
+    <t>17,082</t>
+  </si>
+  <si>
+    <t>07:55</t>
+  </si>
+  <si>
+    <t>17,109</t>
+  </si>
+  <si>
+    <t>16:55</t>
+  </si>
+  <si>
+    <t>17,514</t>
+  </si>
+  <si>
+    <t>21:40</t>
+  </si>
+  <si>
+    <t>09:40</t>
+  </si>
+  <si>
+    <t>17,601</t>
+  </si>
+  <si>
+    <t>15:25</t>
+  </si>
+  <si>
+    <t>09:50</t>
+  </si>
+  <si>
+    <t>12:45</t>
+  </si>
+  <si>
+    <t>20:25</t>
+  </si>
+  <si>
+    <t>17,685</t>
+  </si>
+  <si>
+    <t>18,027</t>
+  </si>
+  <si>
+    <t>18,369</t>
+  </si>
+  <si>
+    <t>12:50</t>
+  </si>
+  <si>
+    <t>06:20</t>
+  </si>
+  <si>
+    <t>18,435</t>
+  </si>
+  <si>
+    <t>15:05</t>
+  </si>
+  <si>
+    <t>23:15</t>
+  </si>
+  <si>
+    <t>18,810</t>
+  </si>
+  <si>
+    <t>20:00</t>
   </si>
   <si>
     <t>08:50</t>
   </si>
   <si>
-    <t>08:25</t>
-  </si>
-  <si>
-    <t>15:35</t>
-  </si>
-  <si>
-    <t>23:10</t>
-  </si>
-  <si>
-    <t>06:20</t>
-  </si>
-  <si>
-    <t>13:40</t>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>17:50</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>08:35</t>
+  </si>
+  <si>
+    <t>19,314</t>
+  </si>
+  <si>
+    <t>16:45</t>
+  </si>
+  <si>
+    <t>19,442</t>
+  </si>
+  <si>
+    <t>11:20</t>
+  </si>
+  <si>
+    <t>19,524</t>
+  </si>
+  <si>
+    <t>19,569</t>
+  </si>
+  <si>
+    <t>18:55</t>
+  </si>
+  <si>
+    <t>17:45</t>
+  </si>
+  <si>
+    <t>18:10</t>
+  </si>
+  <si>
+    <t>19,782</t>
+  </si>
+  <si>
+    <t>19,995</t>
+  </si>
+  <si>
+    <t>05:25</t>
+  </si>
+  <si>
+    <t>12:25</t>
+  </si>
+  <si>
+    <t>20,295</t>
+  </si>
+  <si>
+    <t>11:15</t>
+  </si>
+  <si>
+    <t>20,358</t>
+  </si>
+  <si>
+    <t>20,574</t>
+  </si>
+  <si>
+    <t>23:50</t>
+  </si>
+  <si>
+    <t>20,826</t>
+  </si>
+  <si>
+    <t>20:50</t>
+  </si>
+  <si>
+    <t>10:55</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>22,245</t>
+  </si>
+  <si>
+    <t>06:10</t>
+  </si>
+  <si>
+    <t>05:50</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>22,605</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
+    <t>22,932</t>
+  </si>
+  <si>
+    <t>01:35</t>
+  </si>
+  <si>
+    <t>22,974</t>
+  </si>
+  <si>
+    <t>21:05</t>
+  </si>
+  <si>
+    <t>20:45</t>
+  </si>
+  <si>
+    <t>10:15</t>
+  </si>
+  <si>
+    <t>22:00</t>
+  </si>
+  <si>
+    <t>23,082</t>
+  </si>
+  <si>
+    <t>23,820</t>
+  </si>
+  <si>
+    <t>24,813</t>
+  </si>
+  <si>
+    <t>09:25</t>
+  </si>
+  <si>
+    <t>14:20</t>
+  </si>
+  <si>
+    <t>39,888</t>
+  </si>
+  <si>
+    <t>13:10</t>
+  </si>
+  <si>
+    <t>10:40</t>
+  </si>
+  <si>
+    <t>40,206</t>
+  </si>
+  <si>
+    <t>17:25</t>
+  </si>
+  <si>
+    <t>20:10</t>
+  </si>
+  <si>
+    <t>28,428</t>
+  </si>
+  <si>
+    <t>23:55</t>
+  </si>
+  <si>
+    <t>04:25</t>
+  </si>
+  <si>
+    <t>06:35</t>
+  </si>
+  <si>
+    <t>9,820</t>
+  </si>
+  <si>
+    <t>01:15</t>
+  </si>
+  <si>
+    <t>03:20</t>
+  </si>
+  <si>
+    <t>9,824</t>
   </si>
   <si>
     <t>13:50</t>
   </si>
   <si>
-    <t>19:00</t>
-  </si>
-  <si>
-    <t>14,180</t>
-  </si>
-  <si>
-    <t>19:30</t>
-  </si>
-  <si>
-    <t>01:00</t>
-  </si>
-  <si>
-    <t>17:40</t>
-  </si>
-  <si>
-    <t>23:35</t>
-  </si>
-  <si>
-    <t>07:20</t>
-  </si>
-  <si>
-    <t>14:25</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>06:05</t>
+    <t>19:50</t>
+  </si>
+  <si>
+    <t>20:35</t>
+  </si>
+  <si>
+    <t>12:35</t>
+  </si>
+  <si>
+    <t>10:10</t>
+  </si>
+  <si>
+    <t>9,904</t>
+  </si>
+  <si>
+    <t>18:15</t>
+  </si>
+  <si>
+    <t>11,160</t>
+  </si>
+  <si>
+    <t>02:40</t>
+  </si>
+  <si>
+    <t>04:55</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>11,164</t>
+  </si>
+  <si>
+    <t>23:30</t>
+  </si>
+  <si>
+    <t>12:55</t>
+  </si>
+  <si>
+    <t>11:45</t>
+  </si>
+  <si>
+    <t>22:10</t>
+  </si>
+  <si>
+    <t>16:25</t>
+  </si>
+  <si>
+    <t>12,004</t>
+  </si>
+  <si>
+    <t>22:05</t>
+  </si>
+  <si>
+    <t>23:25</t>
+  </si>
+  <si>
+    <t>22:15</t>
+  </si>
+  <si>
+    <t>14,000</t>
+  </si>
+  <si>
+    <t>15:50</t>
+  </si>
+  <si>
+    <t>14,216</t>
+  </si>
+  <si>
+    <t>14,592</t>
+  </si>
+  <si>
+    <t>14,684</t>
+  </si>
+  <si>
+    <t>14,708</t>
+  </si>
+  <si>
+    <t>15,096</t>
+  </si>
+  <si>
+    <t>15,324</t>
+  </si>
+  <si>
+    <t>17:05</t>
+  </si>
+  <si>
+    <t>15,420</t>
+  </si>
+  <si>
+    <t>11:10</t>
+  </si>
+  <si>
+    <t>15,644</t>
+  </si>
+  <si>
+    <t>23:45</t>
   </si>
   <si>
     <t>05:15</t>
   </si>
   <si>
-    <t>14:20</t>
-  </si>
-  <si>
-    <t>09:35</t>
-  </si>
-  <si>
-    <t>17:25</t>
-  </si>
-  <si>
-    <t>14,392</t>
-  </si>
-  <si>
-    <t>Air India</t>
-  </si>
-  <si>
-    <t>06:10</t>
-  </si>
-  <si>
-    <t>08:55</t>
-  </si>
-  <si>
-    <t>15,419</t>
-  </si>
-  <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>16:15</t>
-  </si>
-  <si>
-    <t>SpiceJet</t>
-  </si>
-  <si>
-    <t>08:40</t>
-  </si>
-  <si>
-    <t>17:05</t>
-  </si>
-  <si>
-    <t>18,108</t>
-  </si>
-  <si>
-    <t>AirAsia</t>
-  </si>
-  <si>
-    <t>20:40</t>
-  </si>
-  <si>
-    <t>15:25</t>
-  </si>
-  <si>
-    <t>01:25</t>
-  </si>
-  <si>
-    <t>20:25</t>
-  </si>
-  <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>18:45</t>
-  </si>
-  <si>
-    <t>21:05</t>
-  </si>
-  <si>
-    <t>09:45</t>
-  </si>
-  <si>
-    <t>22:15</t>
-  </si>
-  <si>
-    <t>07:05</t>
-  </si>
-  <si>
-    <t>21:10</t>
-  </si>
-  <si>
-    <t>23:55</t>
-  </si>
-  <si>
-    <t>12:30</t>
-  </si>
-  <si>
-    <t>17:20</t>
-  </si>
-  <si>
-    <t>20:05</t>
-  </si>
-  <si>
-    <t>GO FIRST</t>
-  </si>
-  <si>
-    <t>02:40</t>
+    <t>00:45</t>
+  </si>
+  <si>
+    <t>16:35</t>
+  </si>
+  <si>
+    <t>15,852</t>
+  </si>
+  <si>
+    <t>16,428</t>
+  </si>
+  <si>
+    <t>23:05</t>
+  </si>
+  <si>
+    <t>16,932</t>
+  </si>
+  <si>
+    <t>16,960</t>
+  </si>
+  <si>
+    <t>21:50</t>
+  </si>
+  <si>
+    <t>17,168</t>
+  </si>
+  <si>
+    <t>17,524</t>
+  </si>
+  <si>
+    <t>05:35</t>
+  </si>
+  <si>
+    <t>17,900</t>
+  </si>
+  <si>
+    <t>18,084</t>
+  </si>
+  <si>
+    <t>02:00</t>
+  </si>
+  <si>
+    <t>19,080</t>
+  </si>
+  <si>
+    <t>13:35</t>
+  </si>
+  <si>
+    <t>19,120</t>
+  </si>
+  <si>
+    <t>09:20</t>
+  </si>
+  <si>
+    <t>19,160</t>
+  </si>
+  <si>
+    <t>19,332</t>
+  </si>
+  <si>
+    <t>05:30</t>
+  </si>
+  <si>
+    <t>10:50</t>
+  </si>
+  <si>
+    <t>18:05</t>
+  </si>
+  <si>
+    <t>06:55</t>
+  </si>
+  <si>
+    <t>19,724</t>
+  </si>
+  <si>
+    <t>19,756</t>
+  </si>
+  <si>
+    <t>20,048</t>
+  </si>
+  <si>
+    <t>15:55</t>
+  </si>
+  <si>
+    <t>08:10</t>
+  </si>
+  <si>
+    <t>17:10</t>
+  </si>
+  <si>
+    <t>20,104</t>
+  </si>
+  <si>
+    <t>20,628</t>
+  </si>
+  <si>
+    <t>13:25</t>
+  </si>
+  <si>
+    <t>20,924</t>
+  </si>
+  <si>
+    <t>20,944</t>
+  </si>
+  <si>
+    <t>21,012</t>
+  </si>
+  <si>
+    <t>14:10</t>
+  </si>
+  <si>
+    <t>22:25</t>
+  </si>
+  <si>
+    <t>22,028</t>
+  </si>
+  <si>
+    <t>22,100</t>
+  </si>
+  <si>
+    <t>00:10</t>
+  </si>
+  <si>
+    <t>22,336</t>
+  </si>
+  <si>
+    <t>15:40</t>
+  </si>
+  <si>
+    <t>22,604</t>
+  </si>
+  <si>
+    <t>23,044</t>
+  </si>
+  <si>
+    <t>23,384</t>
+  </si>
+  <si>
+    <t>23,480</t>
+  </si>
+  <si>
+    <t>23,708</t>
+  </si>
+  <si>
+    <t>23,716</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>14:55</t>
+  </si>
+  <si>
+    <t>24,032</t>
+  </si>
+  <si>
+    <t>02:25</t>
+  </si>
+  <si>
+    <t>24,528</t>
+  </si>
+  <si>
+    <t>07:40</t>
+  </si>
+  <si>
+    <t>12:40</t>
+  </si>
+  <si>
+    <t>24,660</t>
+  </si>
+  <si>
+    <t>24,932</t>
+  </si>
+  <si>
+    <t>25,500</t>
+  </si>
+  <si>
+    <t>25,988</t>
+  </si>
+  <si>
+    <t>26,036</t>
+  </si>
+  <si>
+    <t>18:50</t>
+  </si>
+  <si>
+    <t>26,124</t>
+  </si>
+  <si>
+    <t>26,760</t>
+  </si>
+  <si>
+    <t>26,844</t>
+  </si>
+  <si>
+    <t>26,896</t>
+  </si>
+  <si>
+    <t>27,748</t>
+  </si>
+  <si>
+    <t>28,508</t>
+  </si>
+  <si>
+    <t>21:45</t>
+  </si>
+  <si>
+    <t>29,004</t>
   </si>
   <si>
     <t>07:45</t>
   </si>
   <si>
-    <t>10:55</t>
-  </si>
-  <si>
-    <t>16:30</t>
-  </si>
-  <si>
-    <t>18:20</t>
-  </si>
-  <si>
-    <t>00:10</t>
-  </si>
-  <si>
-    <t>00:30</t>
-  </si>
-  <si>
-    <t>06:50</t>
-  </si>
-  <si>
-    <t>14:30</t>
-  </si>
-  <si>
-    <t>20:50</t>
-  </si>
-  <si>
-    <t>19:45</t>
-  </si>
-  <si>
-    <t>10:40</t>
-  </si>
-  <si>
-    <t>12:25</t>
-  </si>
-  <si>
-    <t>20:45</t>
-  </si>
-  <si>
-    <t>21:25</t>
-  </si>
-  <si>
-    <t>00:15</t>
-  </si>
-  <si>
-    <t>18:35</t>
-  </si>
-  <si>
-    <t>21:30</t>
-  </si>
-  <si>
-    <t>23:20</t>
-  </si>
-  <si>
-    <t>06:15</t>
-  </si>
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>04:15</t>
-  </si>
-  <si>
-    <t>05:50</t>
-  </si>
-  <si>
-    <t>08:35</t>
-  </si>
-  <si>
-    <t>08:20</t>
-  </si>
-  <si>
-    <t>11:05</t>
-  </si>
-  <si>
-    <t>09:15</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>14:45</t>
-  </si>
-  <si>
-    <t>15:30</t>
-  </si>
-  <si>
-    <t>18:15</t>
-  </si>
-  <si>
-    <t>20:35</t>
-  </si>
-  <si>
-    <t>21:20</t>
-  </si>
-  <si>
-    <t>00:05</t>
-  </si>
-  <si>
-    <t>22:50</t>
-  </si>
-  <si>
-    <t>01:35</t>
-  </si>
-  <si>
-    <t>05:20</t>
-  </si>
-  <si>
-    <t>10:10</t>
-  </si>
-  <si>
-    <t>22:25</t>
-  </si>
-  <si>
-    <t>20:30</t>
-  </si>
-  <si>
-    <t>23:25</t>
-  </si>
-  <si>
-    <t>21:45</t>
-  </si>
-  <si>
-    <t>00:40</t>
-  </si>
-  <si>
-    <t>16:35</t>
-  </si>
-  <si>
-    <t>04:25</t>
+    <t>29,876</t>
+  </si>
+  <si>
+    <t>33,272</t>
+  </si>
+  <si>
+    <t>18:25</t>
+  </si>
+  <si>
+    <t>37,604</t>
+  </si>
+  <si>
+    <t>42,344</t>
+  </si>
+  <si>
+    <t>46,004</t>
+  </si>
+  <si>
+    <t>51,960</t>
   </si>
   <si>
     <t>20:20</t>
   </si>
   <si>
-    <t>17:35</t>
-  </si>
-  <si>
-    <t>19:50</t>
-  </si>
-  <si>
-    <t>22:40</t>
-  </si>
-  <si>
-    <t>08:05</t>
-  </si>
-  <si>
-    <t>10:50</t>
-  </si>
-  <si>
-    <t>18:50</t>
-  </si>
-  <si>
-    <t>14:15</t>
-  </si>
-  <si>
-    <t>18:05</t>
-  </si>
-  <si>
-    <t>07:55</t>
-  </si>
-  <si>
-    <t>13:10</t>
-  </si>
-  <si>
-    <t>11:45</t>
-  </si>
-  <si>
-    <t>19:25</t>
-  </si>
-  <si>
-    <t>06:40</t>
-  </si>
-  <si>
-    <t>23:15</t>
-  </si>
-  <si>
-    <t>07:10</t>
-  </si>
-  <si>
-    <t>08:10</t>
-  </si>
-  <si>
-    <t>22:10</t>
-  </si>
-  <si>
-    <t>23:40</t>
-  </si>
-  <si>
-    <t>20:00</t>
-  </si>
-  <si>
-    <t>17:50</t>
-  </si>
-  <si>
-    <t>15:05</t>
-  </si>
-  <si>
-    <t>10:15</t>
-  </si>
-  <si>
-    <t>12:45</t>
-  </si>
-  <si>
-    <t>12:50</t>
-  </si>
-  <si>
-    <t>07:25</t>
-  </si>
-  <si>
-    <t>15:00</t>
-  </si>
-  <si>
-    <t>05:55</t>
-  </si>
-  <si>
-    <t>17:30</t>
-  </si>
-  <si>
-    <t>23:30</t>
-  </si>
-  <si>
-    <t>14:55</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>16:40</t>
-  </si>
-  <si>
-    <t>03:55</t>
-  </si>
-  <si>
-    <t>16:45</t>
-  </si>
-  <si>
-    <t>15:10</t>
-  </si>
-  <si>
-    <t>19:05</t>
-  </si>
-  <si>
-    <t>10:20</t>
-  </si>
-  <si>
-    <t>14:50</t>
-  </si>
-  <si>
-    <t>12:40</t>
-  </si>
-  <si>
-    <t>23:50</t>
-  </si>
-  <si>
-    <t>12:10</t>
-  </si>
-  <si>
-    <t>05:35</t>
-  </si>
-  <si>
-    <t>04:55</t>
-  </si>
-  <si>
-    <t>11:40</t>
-  </si>
-  <si>
-    <t>17:45</t>
-  </si>
-  <si>
-    <t>22:00</t>
-  </si>
-  <si>
-    <t>22:30</t>
-  </si>
-  <si>
-    <t>05:45</t>
-  </si>
-  <si>
-    <t>13:55</t>
-  </si>
-  <si>
-    <t>22:55</t>
-  </si>
-  <si>
-    <t>09:25</t>
-  </si>
-  <si>
-    <t>15:40</t>
-  </si>
-  <si>
-    <t>00:25</t>
-  </si>
-  <si>
-    <t>00:50</t>
-  </si>
-  <si>
-    <t>14:10</t>
-  </si>
-  <si>
-    <t>05:00</t>
-  </si>
-  <si>
-    <t>12:20</t>
-  </si>
-  <si>
-    <t>16:50</t>
-  </si>
-  <si>
-    <t>00:45</t>
-  </si>
-  <si>
-    <t>13:45</t>
-  </si>
-  <si>
-    <t>10:35</t>
-  </si>
-  <si>
-    <t>15:50</t>
-  </si>
-  <si>
-    <t>10:05</t>
-  </si>
-  <si>
-    <t>10:30</t>
-  </si>
-  <si>
-    <t>20:10</t>
-  </si>
-  <si>
-    <t>36,922</t>
-  </si>
-  <si>
-    <t>10,604</t>
-  </si>
-  <si>
-    <t>12:35</t>
-  </si>
-  <si>
-    <t>06:35</t>
-  </si>
-  <si>
-    <t>11,320</t>
-  </si>
-  <si>
-    <t>01:15</t>
-  </si>
-  <si>
-    <t>03:20</t>
-  </si>
-  <si>
-    <t>11,324</t>
-  </si>
-  <si>
-    <t>11,395</t>
-  </si>
-  <si>
-    <t>21:35</t>
-  </si>
-  <si>
-    <t>12,655</t>
-  </si>
-  <si>
-    <t>12,660</t>
-  </si>
-  <si>
-    <t>18:00</t>
-  </si>
-  <si>
-    <t>14:05</t>
-  </si>
-  <si>
-    <t>12,664</t>
-  </si>
-  <si>
-    <t>12:55</t>
-  </si>
-  <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>18:10</t>
-  </si>
-  <si>
-    <t>09:30</t>
-  </si>
-  <si>
-    <t>16:25</t>
-  </si>
-  <si>
-    <t>13,504</t>
-  </si>
-  <si>
-    <t>18:40</t>
-  </si>
-  <si>
-    <t>22:05</t>
-  </si>
-  <si>
-    <t>15,500</t>
-  </si>
-  <si>
-    <t>16,092</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>16,184</t>
-  </si>
-  <si>
-    <t>17,144</t>
-  </si>
-  <si>
-    <t>11:10</t>
-  </si>
-  <si>
-    <t>23:45</t>
-  </si>
-  <si>
-    <t>17,198</t>
-  </si>
-  <si>
-    <t>17,352</t>
-  </si>
-  <si>
-    <t>17,690</t>
-  </si>
-  <si>
-    <t>17,940</t>
-  </si>
-  <si>
-    <t>18,162</t>
-  </si>
-  <si>
-    <t>09:40</t>
-  </si>
-  <si>
-    <t>18,306</t>
-  </si>
-  <si>
-    <t>18,402</t>
-  </si>
-  <si>
-    <t>21:50</t>
-  </si>
-  <si>
-    <t>07:50</t>
-  </si>
-  <si>
-    <t>18,672</t>
-  </si>
-  <si>
-    <t>19,410</t>
-  </si>
-  <si>
-    <t>19,584</t>
-  </si>
-  <si>
-    <t>23:05</t>
-  </si>
-  <si>
-    <t>19,914</t>
-  </si>
-  <si>
-    <t>02:00</t>
-  </si>
-  <si>
-    <t>20,580</t>
-  </si>
-  <si>
-    <t>20,832</t>
-  </si>
-  <si>
-    <t>05:30</t>
-  </si>
-  <si>
-    <t>06:55</t>
-  </si>
-  <si>
-    <t>20,966</t>
-  </si>
-  <si>
-    <t>21,224</t>
-  </si>
-  <si>
-    <t>21,548</t>
-  </si>
-  <si>
-    <t>15:55</t>
-  </si>
-  <si>
-    <t>21:40</t>
-  </si>
-  <si>
-    <t>13:35</t>
-  </si>
-  <si>
-    <t>22,102</t>
-  </si>
-  <si>
-    <t>22,128</t>
-  </si>
-  <si>
-    <t>09:20</t>
-  </si>
-  <si>
-    <t>22,142</t>
-  </si>
-  <si>
-    <t>18:55</t>
-  </si>
-  <si>
-    <t>22,512</t>
-  </si>
-  <si>
-    <t>22,738</t>
-  </si>
-  <si>
-    <t>17:15</t>
-  </si>
-  <si>
-    <t>17:10</t>
-  </si>
-  <si>
-    <t>23,086</t>
-  </si>
-  <si>
-    <t>16:55</t>
-  </si>
-  <si>
-    <t>23,836</t>
-  </si>
-  <si>
-    <t>13:25</t>
-  </si>
-  <si>
-    <t>23,906</t>
-  </si>
-  <si>
-    <t>23,926</t>
-  </si>
-  <si>
-    <t>24,884</t>
-  </si>
-  <si>
-    <t>24,980</t>
-  </si>
-  <si>
-    <t>25,010</t>
-  </si>
-  <si>
-    <t>25,082</t>
-  </si>
-  <si>
-    <t>00:35</t>
-  </si>
-  <si>
-    <t>25,269</t>
-  </si>
-  <si>
-    <t>25,396</t>
-  </si>
-  <si>
-    <t>07:15</t>
-  </si>
-  <si>
-    <t>25,532</t>
-  </si>
-  <si>
-    <t>25,586</t>
-  </si>
-  <si>
-    <t>26,026</t>
-  </si>
-  <si>
-    <t>02:25</t>
-  </si>
-  <si>
-    <t>26,028</t>
-  </si>
-  <si>
-    <t>07:40</t>
-  </si>
-  <si>
-    <t>26,690</t>
-  </si>
-  <si>
-    <t>26,949</t>
-  </si>
-  <si>
-    <t>27,260</t>
-  </si>
-  <si>
-    <t>27,488</t>
-  </si>
-  <si>
-    <t>27,536</t>
-  </si>
-  <si>
-    <t>27,624</t>
-  </si>
-  <si>
-    <t>27,726</t>
-  </si>
-  <si>
-    <t>28,209</t>
-  </si>
-  <si>
-    <t>29,248</t>
-  </si>
-  <si>
-    <t>29,826</t>
-  </si>
-  <si>
-    <t>29,878</t>
-  </si>
-  <si>
-    <t>30,504</t>
-  </si>
-  <si>
-    <t>31,376</t>
-  </si>
-  <si>
-    <t>31,501</t>
-  </si>
-  <si>
-    <t>11:15</t>
-  </si>
-  <si>
-    <t>34,772</t>
-  </si>
-  <si>
-    <t>18:25</t>
-  </si>
-  <si>
-    <t>39,104</t>
-  </si>
-  <si>
-    <t>43,844</t>
-  </si>
-  <si>
-    <t>48,986</t>
-  </si>
-  <si>
-    <t>54,858</t>
-  </si>
-  <si>
-    <t>51,709</t>
+    <t>35,503</t>
   </si>
   <si>
     <t>19:40</t>
   </si>
   <si>
-    <t>56,477</t>
-  </si>
-  <si>
-    <t>59,501</t>
+    <t>39,615</t>
+  </si>
+  <si>
+    <t>41,631</t>
   </si>
 </sst>
 </file>
@@ -1400,7 +1472,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1462,7 +1534,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
@@ -1556,7 +1628,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1564,489 +1636,489 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
         <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
         <v>40</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
         <v>40</v>
-      </c>
-      <c r="C27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
         <v>40</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
         <v>48</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
         <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
         <v>50</v>
@@ -2054,156 +2126,170 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B36" t="s">
         <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B46" t="s">
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" t="s">
-        <v>57</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2213,7 +2299,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D164"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2221,389 +2307,413 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
         <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
         <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
         <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
         <v>58</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
         <v>79</v>
-      </c>
-      <c r="D13" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
         <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
         <v>87</v>
-      </c>
-      <c r="B20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>91</v>
+      </c>
+      <c r="D22" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>96</v>
+      </c>
+      <c r="D24" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
         <v>97</v>
       </c>
-      <c r="B25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" t="s">
-        <v>100</v>
+      <c r="D25" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+      <c r="D26" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="D27" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>69</v>
+      </c>
+      <c r="D29" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
         <v>105</v>
@@ -2611,87 +2721,111 @@
       <c r="C30" t="s">
         <v>106</v>
       </c>
+      <c r="D30" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
         <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="D31" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>110</v>
+      </c>
+      <c r="D32" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>112</v>
+      </c>
+      <c r="D33" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>114</v>
+      </c>
+      <c r="D34" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>62</v>
+      </c>
+      <c r="D35" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="D36" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
         <v>118</v>
@@ -2699,1391 +2833,1562 @@
       <c r="C38" t="s">
         <v>119</v>
       </c>
+      <c r="D38" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>110</v>
+      </c>
+      <c r="D39" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="C40" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="D40" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>123</v>
+      </c>
+      <c r="D41" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>104</v>
+      </c>
+      <c r="D42" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>73</v>
+      </c>
+      <c r="D43" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C44" t="s">
-        <v>117</v>
+        <v>126</v>
+      </c>
+      <c r="D44" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>126</v>
+      </c>
+      <c r="D45" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>120</v>
+        <v>123</v>
+      </c>
+      <c r="D46" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
+        <v>28</v>
+      </c>
+      <c r="D47" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B48" t="s">
         <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>115</v>
+        <v>122</v>
+      </c>
+      <c r="D48" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s">
-        <v>119</v>
+        <v>129</v>
+      </c>
+      <c r="D49" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B50" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="C50" t="s">
-        <v>115</v>
+        <v>73</v>
+      </c>
+      <c r="D50" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>117</v>
+      </c>
+      <c r="D51" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>117</v>
+      </c>
+      <c r="D52" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
+        <v>110</v>
+      </c>
+      <c r="D53" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C54" t="s">
-        <v>129</v>
+        <v>134</v>
+      </c>
+      <c r="D54" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
+        <v>110</v>
+      </c>
+      <c r="D55" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="C56" t="s">
-        <v>132</v>
+        <v>110</v>
+      </c>
+      <c r="D56" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C57" t="s">
-        <v>134</v>
+        <v>138</v>
+      </c>
+      <c r="D57" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C58" t="s">
-        <v>65</v>
+        <v>128</v>
+      </c>
+      <c r="D58" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B59" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C59" t="s">
-        <v>54</v>
+        <v>128</v>
+      </c>
+      <c r="D59" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C60" t="s">
-        <v>137</v>
+        <v>143</v>
+      </c>
+      <c r="D60" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B61" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C61" t="s">
-        <v>137</v>
+        <v>146</v>
+      </c>
+      <c r="D61" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="B62" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C62" t="s">
-        <v>139</v>
+        <v>117</v>
+      </c>
+      <c r="D62" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C63" t="s">
-        <v>141</v>
+        <v>134</v>
+      </c>
+      <c r="D63" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C64" t="s">
-        <v>142</v>
+        <v>134</v>
+      </c>
+      <c r="D64" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C65" t="s">
-        <v>144</v>
+        <v>153</v>
+      </c>
+      <c r="D65" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C66" t="s">
-        <v>132</v>
+        <v>153</v>
+      </c>
+      <c r="D66" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C67" t="s">
-        <v>147</v>
+        <v>77</v>
+      </c>
+      <c r="D67" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="C68" t="s">
-        <v>149</v>
+        <v>77</v>
+      </c>
+      <c r="D68" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="C69" t="s">
-        <v>150</v>
+        <v>129</v>
+      </c>
+      <c r="D69" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="C70" t="s">
-        <v>151</v>
+        <v>158</v>
+      </c>
+      <c r="D70" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B71" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C71" t="s">
-        <v>59</v>
+        <v>158</v>
+      </c>
+      <c r="D71" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="C72" t="s">
-        <v>152</v>
+        <v>160</v>
+      </c>
+      <c r="D72" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="B73" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="C73" t="s">
-        <v>154</v>
+        <v>162</v>
+      </c>
+      <c r="D73" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="B74" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>165</v>
+      </c>
+      <c r="D74" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="B75" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C75" t="s">
-        <v>124</v>
+        <v>162</v>
+      </c>
+      <c r="D75" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="C76" t="s">
-        <v>142</v>
+        <v>101</v>
+      </c>
+      <c r="D76" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C77" t="s">
-        <v>159</v>
+        <v>167</v>
+      </c>
+      <c r="D77" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C78" t="s">
         <v>101</v>
       </c>
+      <c r="D78" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C79" t="s">
-        <v>162</v>
+        <v>170</v>
+      </c>
+      <c r="D79" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B80" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="C80" t="s">
-        <v>164</v>
+        <v>158</v>
+      </c>
+      <c r="D80" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B81" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="C81" t="s">
-        <v>165</v>
+        <v>162</v>
+      </c>
+      <c r="D81" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B82" t="s">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>165</v>
+      </c>
+      <c r="D82" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="C83" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="D83" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B84" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="C84" t="s">
-        <v>169</v>
+        <v>165</v>
+      </c>
+      <c r="D84" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B85" t="s">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>85</v>
+        <v>162</v>
+      </c>
+      <c r="D85" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B86" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="C86" t="s">
-        <v>171</v>
+        <v>162</v>
+      </c>
+      <c r="D86" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="B87" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C87" t="s">
-        <v>169</v>
+        <v>75</v>
+      </c>
+      <c r="D87" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B88" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C88" t="s">
-        <v>174</v>
+        <v>178</v>
+      </c>
+      <c r="D88" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B89" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="C89" t="s">
-        <v>167</v>
+        <v>181</v>
+      </c>
+      <c r="D89" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B90" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C90" t="s">
-        <v>175</v>
+        <v>181</v>
+      </c>
+      <c r="D90" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B91" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="C91" t="s">
-        <v>79</v>
+        <v>181</v>
+      </c>
+      <c r="D91" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B92" t="s">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="C92" t="s">
-        <v>176</v>
+        <v>178</v>
+      </c>
+      <c r="D92" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B93" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="C93" t="s">
-        <v>176</v>
+        <v>181</v>
+      </c>
+      <c r="D93" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B94" t="s">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="C94" t="s">
-        <v>177</v>
+        <v>181</v>
+      </c>
+      <c r="D94" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B95" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="C95" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="D95" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B96" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="C96" t="s">
-        <v>32</v>
+        <v>178</v>
+      </c>
+      <c r="D96" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B97" t="s">
+        <v>183</v>
+      </c>
+      <c r="C97" t="s">
         <v>178</v>
       </c>
-      <c r="C97" t="s">
-        <v>32</v>
+      <c r="D97" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B98" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="C98" t="s">
-        <v>32</v>
+        <v>185</v>
+      </c>
+      <c r="D98" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B99" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>185</v>
+      </c>
+      <c r="D99" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B100" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="C100" t="s">
-        <v>32</v>
+        <v>114</v>
+      </c>
+      <c r="D100" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="B101" t="s">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C101" t="s">
-        <v>107</v>
+        <v>183</v>
+      </c>
+      <c r="D101" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B102" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="C102" t="s">
-        <v>161</v>
+        <v>114</v>
+      </c>
+      <c r="D102" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B103" t="s">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="C103" t="s">
-        <v>161</v>
+        <v>134</v>
+      </c>
+      <c r="D103" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B104" t="s">
         <v>181</v>
       </c>
       <c r="C104" t="s">
-        <v>117</v>
+        <v>162</v>
+      </c>
+      <c r="D104" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B105" t="s">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="C105" t="s">
-        <v>108</v>
+        <v>162</v>
+      </c>
+      <c r="D105" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="B106" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="C106" t="s">
-        <v>183</v>
+        <v>165</v>
+      </c>
+      <c r="D106" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="B107" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C107" t="s">
-        <v>45</v>
+        <v>165</v>
+      </c>
+      <c r="D107" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="B108" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="C108" t="s">
-        <v>185</v>
+        <v>162</v>
+      </c>
+      <c r="D108" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="B109" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C109" t="s">
-        <v>185</v>
+        <v>162</v>
+      </c>
+      <c r="D109" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B110" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="C110" t="s">
-        <v>45</v>
+        <v>194</v>
+      </c>
+      <c r="D110" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B111" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C111" t="s">
-        <v>188</v>
+        <v>167</v>
+      </c>
+      <c r="D111" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B112" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C112" t="s">
-        <v>188</v>
+        <v>198</v>
+      </c>
+      <c r="D112" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="B113" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C113" t="s">
-        <v>153</v>
+        <v>62</v>
+      </c>
+      <c r="D113" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="B114" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C114" t="s">
-        <v>119</v>
+        <v>187</v>
+      </c>
+      <c r="D114" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="B115" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="C115" t="s">
-        <v>192</v>
+        <v>110</v>
+      </c>
+      <c r="D115" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="B116" t="s">
-        <v>190</v>
+        <v>27</v>
       </c>
       <c r="C116" t="s">
-        <v>119</v>
+        <v>110</v>
+      </c>
+      <c r="D116" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B117" t="s">
-        <v>191</v>
+        <v>36</v>
       </c>
       <c r="C117" t="s">
-        <v>192</v>
+        <v>203</v>
+      </c>
+      <c r="D117" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B118" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="C118" t="s">
-        <v>153</v>
+        <v>41</v>
+      </c>
+      <c r="D118" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B119" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="C119" t="s">
-        <v>157</v>
+        <v>203</v>
+      </c>
+      <c r="D119" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B120" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="C120" t="s">
-        <v>193</v>
+        <v>41</v>
+      </c>
+      <c r="D120" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B121" t="s">
-        <v>194</v>
+        <v>42</v>
       </c>
       <c r="C121" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="D121" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B122" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="C122" t="s">
-        <v>195</v>
+        <v>203</v>
+      </c>
+      <c r="D122" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B123" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="C123" t="s">
-        <v>195</v>
+        <v>41</v>
+      </c>
+      <c r="D123" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B124" t="s">
-        <v>193</v>
+        <v>36</v>
       </c>
       <c r="C124" t="s">
-        <v>32</v>
+        <v>41</v>
+      </c>
+      <c r="D124" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B125" t="s">
-        <v>31</v>
+        <v>184</v>
       </c>
       <c r="C125" t="s">
-        <v>132</v>
+        <v>203</v>
+      </c>
+      <c r="D125" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="B126" t="s">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c r="C126" t="s">
-        <v>185</v>
+        <v>57</v>
+      </c>
+      <c r="D126" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="B127" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="C127" t="s">
-        <v>197</v>
+        <v>57</v>
+      </c>
+      <c r="D127" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B128" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C128" t="s">
-        <v>199</v>
+        <v>211</v>
+      </c>
+      <c r="D128" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B129" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C129" t="s">
-        <v>199</v>
+        <v>67</v>
+      </c>
+      <c r="D129" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B130" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C130" t="s">
-        <v>32</v>
+        <v>153</v>
+      </c>
+      <c r="D130" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B131" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="C131" t="s">
-        <v>203</v>
+        <v>215</v>
+      </c>
+      <c r="D131" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B132" t="s">
-        <v>204</v>
+        <v>59</v>
       </c>
       <c r="C132" t="s">
-        <v>203</v>
+        <v>42</v>
+      </c>
+      <c r="D132" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B133" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="C133" t="s">
-        <v>32</v>
+        <v>217</v>
+      </c>
+      <c r="D133" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B134" t="s">
-        <v>205</v>
+        <v>98</v>
       </c>
       <c r="C134" t="s">
-        <v>206</v>
+        <v>65</v>
+      </c>
+      <c r="D134" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B135" t="s">
-        <v>24</v>
+        <v>184</v>
       </c>
       <c r="C135" t="s">
-        <v>152</v>
+        <v>42</v>
+      </c>
+      <c r="D135" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B136" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="C136" t="s">
-        <v>152</v>
+        <v>65</v>
+      </c>
+      <c r="D136" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B137" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="C137" t="s">
-        <v>208</v>
+        <v>217</v>
+      </c>
+      <c r="D137" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B138" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="C138" t="s">
-        <v>200</v>
+        <v>65</v>
+      </c>
+      <c r="D138" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="B139" t="s">
-        <v>190</v>
+        <v>59</v>
       </c>
       <c r="C139" t="s">
-        <v>209</v>
+        <v>215</v>
+      </c>
+      <c r="D139" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B140" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="C140" t="s">
-        <v>129</v>
+        <v>220</v>
+      </c>
+      <c r="D140" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="B141" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C141" t="s">
-        <v>36</v>
+        <v>207</v>
+      </c>
+      <c r="D141" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="B142" t="s">
-        <v>211</v>
+        <v>105</v>
       </c>
       <c r="C142" t="s">
-        <v>131</v>
+        <v>57</v>
+      </c>
+      <c r="D142" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="B143" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="C143" t="s">
-        <v>131</v>
+        <v>57</v>
+      </c>
+      <c r="D143" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="B144" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="C144" t="s">
-        <v>208</v>
+        <v>57</v>
+      </c>
+      <c r="D144" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="B145" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C145" t="s">
-        <v>212</v>
+        <v>129</v>
+      </c>
+      <c r="D145" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B146" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="C146" t="s">
-        <v>213</v>
+        <v>225</v>
+      </c>
+      <c r="D146" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B147" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="C147" t="s">
-        <v>62</v>
+        <v>225</v>
+      </c>
+      <c r="D147" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B148" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C148" t="s">
-        <v>216</v>
+        <v>228</v>
+      </c>
+      <c r="D148" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B149" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C149" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s">
-        <v>97</v>
-      </c>
-      <c r="B150" t="s">
-        <v>215</v>
-      </c>
-      <c r="C150" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s">
-        <v>87</v>
-      </c>
-      <c r="B151" t="s">
-        <v>193</v>
-      </c>
-      <c r="C151" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s">
-        <v>87</v>
-      </c>
-      <c r="B152" t="s">
-        <v>219</v>
-      </c>
-      <c r="C152" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s">
-        <v>87</v>
-      </c>
-      <c r="B153" t="s">
-        <v>220</v>
-      </c>
-      <c r="C153" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s">
-        <v>87</v>
-      </c>
-      <c r="B154" t="s">
-        <v>92</v>
-      </c>
-      <c r="C154" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s">
-        <v>97</v>
-      </c>
-      <c r="B155" t="s">
-        <v>202</v>
-      </c>
-      <c r="C155" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s">
-        <v>97</v>
-      </c>
-      <c r="B156" t="s">
-        <v>202</v>
-      </c>
-      <c r="C156" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
-        <v>87</v>
-      </c>
-      <c r="B157" t="s">
-        <v>92</v>
-      </c>
-      <c r="C157" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s">
-        <v>97</v>
-      </c>
-      <c r="B158" t="s">
-        <v>69</v>
-      </c>
-      <c r="C158" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>93</v>
-      </c>
-      <c r="B159" t="s">
-        <v>41</v>
-      </c>
-      <c r="C159" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
-        <v>97</v>
-      </c>
-      <c r="B160" t="s">
-        <v>222</v>
-      </c>
-      <c r="C160" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s">
-        <v>97</v>
-      </c>
-      <c r="B161" t="s">
-        <v>69</v>
-      </c>
-      <c r="C161" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>87</v>
-      </c>
-      <c r="B162" t="s">
-        <v>59</v>
-      </c>
-      <c r="C162" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>87</v>
-      </c>
-      <c r="B163" t="s">
-        <v>223</v>
-      </c>
-      <c r="C163" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>93</v>
-      </c>
-      <c r="B164" t="s">
-        <v>141</v>
-      </c>
-      <c r="C164" t="s">
-        <v>130</v>
+        <v>228</v>
+      </c>
+      <c r="D149" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -4101,58 +4406,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>230</v>
       </c>
       <c r="C2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>217</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>233</v>
       </c>
       <c r="D4" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -4170,2424 +4475,2424 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>234</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="D2" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>238</v>
       </c>
       <c r="D3" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="D4" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="D5" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D6" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>244</v>
       </c>
       <c r="D7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>246</v>
       </c>
       <c r="D8" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>234</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C11" t="s">
-        <v>176</v>
+        <v>244</v>
       </c>
       <c r="D11" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="C13" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="D13" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>206</v>
       </c>
       <c r="C14" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="D14" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="D15" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
         <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="D16" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="D17" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>205</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="D18" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>252</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="D20" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>238</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>244</v>
       </c>
       <c r="D23" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="D24" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>253</v>
       </c>
       <c r="D25" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="C26" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="D26" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>241</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="D27" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>243</v>
+        <v>180</v>
       </c>
       <c r="C28" t="s">
-        <v>170</v>
+        <v>255</v>
       </c>
       <c r="D28" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="C29" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="D29" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>246</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c r="D30" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C31" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="D31" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>259</v>
       </c>
       <c r="D32" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>260</v>
       </c>
       <c r="D33" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>176</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>262</v>
       </c>
       <c r="D34" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>255</v>
       </c>
       <c r="C35" t="s">
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="D35" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D36" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="D38" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="B39" t="s">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>258</v>
       </c>
       <c r="D39" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="C40" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D40" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>254</v>
+        <v>105</v>
       </c>
       <c r="D41" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="C42" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="D42" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>262</v>
       </c>
       <c r="D43" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="C44" t="s">
-        <v>254</v>
+        <v>165</v>
       </c>
       <c r="D44" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>218</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D45" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D46" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C47" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D47" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="C48" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D48" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>218</v>
+        <v>135</v>
       </c>
       <c r="C49" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="D49" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="D50" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="D51" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="D52" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="D53" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D54" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>153</v>
+        <v>24</v>
       </c>
       <c r="C55" t="s">
-        <v>54</v>
+        <v>271</v>
       </c>
       <c r="D55" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C56" t="s">
-        <v>106</v>
+        <v>273</v>
       </c>
       <c r="D56" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>274</v>
       </c>
       <c r="C57" t="s">
-        <v>59</v>
+        <v>271</v>
       </c>
       <c r="D57" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>182</v>
+        <v>275</v>
       </c>
       <c r="C58" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="D58" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="C59" t="s">
-        <v>48</v>
+        <v>184</v>
       </c>
       <c r="D59" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="C60" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="D60" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B61" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>221</v>
+        <v>276</v>
       </c>
       <c r="D61" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>221</v>
+        <v>276</v>
       </c>
       <c r="D62" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>108</v>
+        <v>275</v>
       </c>
       <c r="C63" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="D63" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="C64" t="s">
-        <v>132</v>
+        <v>273</v>
       </c>
       <c r="D64" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>107</v>
+        <v>274</v>
       </c>
       <c r="C65" t="s">
-        <v>132</v>
+        <v>276</v>
       </c>
       <c r="D65" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>105</v>
+        <v>260</v>
       </c>
       <c r="C66" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="D66" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>107</v>
+        <v>260</v>
       </c>
       <c r="C67" t="s">
-        <v>260</v>
+        <v>184</v>
       </c>
       <c r="D67" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="C68" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="D68" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C69" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="D69" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B70" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="C70" t="s">
-        <v>163</v>
+        <v>279</v>
       </c>
       <c r="D70" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>98</v>
+        <v>169</v>
       </c>
       <c r="C71" t="s">
-        <v>95</v>
+        <v>205</v>
       </c>
       <c r="D71" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="C72" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="D72" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="C73" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="D73" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="C74" t="s">
-        <v>264</v>
+        <v>82</v>
       </c>
       <c r="D74" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C75" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="D75" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="D76" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B77" t="s">
-        <v>26</v>
+        <v>285</v>
       </c>
       <c r="C77" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D77" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B78" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="C78" t="s">
-        <v>270</v>
+        <v>158</v>
       </c>
       <c r="D78" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B79" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="C79" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="D79" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B80" t="s">
-        <v>237</v>
+        <v>41</v>
       </c>
       <c r="C80" t="s">
-        <v>206</v>
+        <v>256</v>
       </c>
       <c r="D80" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B81" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="C81" t="s">
-        <v>164</v>
+        <v>290</v>
       </c>
       <c r="D81" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B82" t="s">
-        <v>181</v>
+        <v>252</v>
       </c>
       <c r="C82" t="s">
-        <v>167</v>
+        <v>292</v>
       </c>
       <c r="D82" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B83" t="s">
-        <v>146</v>
+        <v>252</v>
       </c>
       <c r="C83" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D83" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B84" t="s">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="C84" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D84" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B85" t="s">
-        <v>41</v>
+        <v>295</v>
       </c>
       <c r="C85" t="s">
-        <v>221</v>
+        <v>296</v>
       </c>
       <c r="D85" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B86" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="C86" t="s">
-        <v>146</v>
+        <v>297</v>
       </c>
       <c r="D86" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B87" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="C87" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="D87" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B88" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="C88" t="s">
-        <v>146</v>
+        <v>262</v>
       </c>
       <c r="D88" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="B89" t="s">
-        <v>279</v>
+        <v>64</v>
       </c>
       <c r="C89" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="D89" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B90" t="s">
-        <v>240</v>
+        <v>27</v>
       </c>
       <c r="C90" t="s">
-        <v>280</v>
+        <v>62</v>
       </c>
       <c r="D90" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="B91" t="s">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="C91" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="D91" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>63</v>
+      </c>
+      <c r="B92" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" t="s">
         <v>113</v>
       </c>
-      <c r="B92" t="s">
-        <v>193</v>
-      </c>
-      <c r="C92" t="s">
-        <v>270</v>
-      </c>
       <c r="D92" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B93" t="s">
-        <v>188</v>
+        <v>32</v>
       </c>
       <c r="C93" t="s">
-        <v>283</v>
+        <v>62</v>
       </c>
       <c r="D93" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B94" t="s">
-        <v>188</v>
+        <v>27</v>
       </c>
       <c r="C94" t="s">
-        <v>268</v>
+        <v>198</v>
       </c>
       <c r="D94" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B95" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="C95" t="s">
-        <v>285</v>
+        <v>84</v>
       </c>
       <c r="D95" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B96" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="C96" t="s">
-        <v>153</v>
+        <v>302</v>
       </c>
       <c r="D96" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B97" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="C97" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="D97" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B98" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="C98" t="s">
-        <v>126</v>
+        <v>303</v>
       </c>
       <c r="D98" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B99" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="C99" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="D99" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B100" t="s">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="C100" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D100" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B101" t="s">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="C101" t="s">
-        <v>126</v>
+        <v>288</v>
       </c>
       <c r="D101" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B102" t="s">
-        <v>246</v>
+        <v>136</v>
       </c>
       <c r="C102" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="D102" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="B103" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="C103" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="D103" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="B104" t="s">
-        <v>69</v>
+        <v>207</v>
       </c>
       <c r="C104" t="s">
-        <v>291</v>
+        <v>217</v>
       </c>
       <c r="D104" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="B105" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="C105" t="s">
-        <v>291</v>
+        <v>217</v>
       </c>
       <c r="D105" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B106" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C106" t="s">
-        <v>293</v>
+        <v>192</v>
       </c>
       <c r="D106" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B107" t="s">
-        <v>32</v>
+        <v>311</v>
       </c>
       <c r="C107" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="D107" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B108" t="s">
-        <v>91</v>
+        <v>220</v>
       </c>
       <c r="C108" t="s">
-        <v>104</v>
+        <v>276</v>
       </c>
       <c r="D108" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B109" t="s">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="C109" t="s">
-        <v>104</v>
+        <v>315</v>
       </c>
       <c r="D109" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="B110" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="C110" t="s">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="D110" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B111" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="C111" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="D111" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B112" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="C112" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="D112" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B113" t="s">
-        <v>214</v>
+        <v>109</v>
       </c>
       <c r="C113" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D113" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B114" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="C114" t="s">
-        <v>157</v>
+        <v>317</v>
       </c>
       <c r="D114" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B115" t="s">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="C115" t="s">
-        <v>119</v>
+        <v>217</v>
       </c>
       <c r="D115" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B116" t="s">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="C116" t="s">
-        <v>300</v>
+        <v>217</v>
       </c>
       <c r="D116" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B117" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="C117" t="s">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="D117" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="B118" t="s">
-        <v>183</v>
+        <v>62</v>
       </c>
       <c r="C118" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="D118" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="B119" t="s">
-        <v>143</v>
+        <v>210</v>
       </c>
       <c r="C119" t="s">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="D119" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="B120" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C120" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="D120" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B121" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C121" t="s">
-        <v>227</v>
+        <v>113</v>
       </c>
       <c r="D121" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B122" t="s">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c r="C122" t="s">
-        <v>190</v>
+        <v>113</v>
       </c>
       <c r="D122" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B123" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="C123" t="s">
-        <v>300</v>
+        <v>108</v>
       </c>
       <c r="D123" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B124" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="C124" t="s">
-        <v>300</v>
+        <v>108</v>
       </c>
       <c r="D124" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B125" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="C125" t="s">
-        <v>303</v>
+        <v>118</v>
       </c>
       <c r="D125" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B126" t="s">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c r="C126" t="s">
-        <v>303</v>
+        <v>118</v>
       </c>
       <c r="D126" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B127" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C127" t="s">
-        <v>145</v>
+        <v>242</v>
       </c>
       <c r="D127" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B128" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="C128" t="s">
-        <v>145</v>
+        <v>242</v>
       </c>
       <c r="D128" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B129" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="C129" t="s">
-        <v>303</v>
+        <v>118</v>
       </c>
       <c r="D129" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B130" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C130" t="s">
-        <v>300</v>
+        <v>108</v>
       </c>
       <c r="D130" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B131" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C131" t="s">
-        <v>300</v>
+        <v>108</v>
       </c>
       <c r="D131" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B132" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="C132" t="s">
-        <v>300</v>
+        <v>108</v>
       </c>
       <c r="D132" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B133" t="s">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="C133" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="D133" t="s">
-        <v>304</v>
+        <v>222</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="B134" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C134" t="s">
-        <v>211</v>
+        <v>324</v>
       </c>
       <c r="D134" t="s">
-        <v>305</v>
+        <v>222</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="B135" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C135" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="D135" t="s">
-        <v>306</v>
+        <v>222</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="B136" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C136" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="D136" t="s">
-        <v>306</v>
+        <v>222</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="B137" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="C137" t="s">
-        <v>104</v>
+        <v>243</v>
       </c>
       <c r="D137" t="s">
-        <v>306</v>
+        <v>222</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="B138" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="C138" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="D138" t="s">
-        <v>308</v>
+        <v>222</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B139" t="s">
-        <v>178</v>
+        <v>326</v>
       </c>
       <c r="C139" t="s">
-        <v>309</v>
+        <v>242</v>
       </c>
       <c r="D139" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B140" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="C140" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="D140" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B141" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="C141" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="D141" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B142" t="s">
-        <v>193</v>
+        <v>331</v>
       </c>
       <c r="C142" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="D142" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B143" t="s">
-        <v>219</v>
+        <v>69</v>
       </c>
       <c r="C143" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="D143" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B144" t="s">
-        <v>279</v>
+        <v>220</v>
       </c>
       <c r="C144" t="s">
-        <v>199</v>
+        <v>312</v>
       </c>
       <c r="D144" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="B145" t="s">
-        <v>65</v>
+        <v>295</v>
       </c>
       <c r="C145" t="s">
-        <v>253</v>
+        <v>325</v>
       </c>
       <c r="D145" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B146" t="s">
-        <v>273</v>
+        <v>213</v>
       </c>
       <c r="C146" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D146" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="B147" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="C147" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="D147" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="B148" t="s">
-        <v>237</v>
+        <v>181</v>
       </c>
       <c r="C148" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="D148" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="B149" t="s">
-        <v>54</v>
+        <v>250</v>
       </c>
       <c r="C149" t="s">
-        <v>99</v>
+        <v>213</v>
       </c>
       <c r="D149" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="B150" t="s">
-        <v>165</v>
+        <v>51</v>
       </c>
       <c r="C150" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="D150" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B151" t="s">
-        <v>196</v>
+        <v>337</v>
       </c>
       <c r="C151" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="D151" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B152" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
       <c r="C152" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="D152" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C153" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="D153" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B154" t="s">
-        <v>285</v>
+        <v>192</v>
       </c>
       <c r="C154" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="D154" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B155" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="C155" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="D155" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B156" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
       <c r="C156" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="D156" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B157" t="s">
-        <v>202</v>
+        <v>113</v>
       </c>
       <c r="C157" t="s">
-        <v>219</v>
+        <v>114</v>
       </c>
       <c r="D157" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="B158" t="s">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="C158" t="s">
-        <v>155</v>
+        <v>290</v>
       </c>
       <c r="D158" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B159" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="C159" t="s">
-        <v>115</v>
+        <v>344</v>
       </c>
       <c r="D159" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B160" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="C160" t="s">
-        <v>280</v>
+        <v>346</v>
       </c>
       <c r="D160" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B161" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="C161" t="s">
-        <v>324</v>
+        <v>200</v>
       </c>
       <c r="D161" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B162" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="C162" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="D162" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B163" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="C163" t="s">
-        <v>165</v>
+        <v>337</v>
       </c>
       <c r="D163" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B164" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="C164" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="D164" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B165" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C165" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="D165" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B166" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C166" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D166" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B167" t="s">
-        <v>133</v>
+        <v>56</v>
       </c>
       <c r="C167" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D167" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B168" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C168" t="s">
-        <v>159</v>
+        <v>354</v>
       </c>
       <c r="D168" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B169" t="s">
-        <v>133</v>
+        <v>56</v>
       </c>
       <c r="C169" t="s">
-        <v>159</v>
+        <v>354</v>
       </c>
       <c r="D169" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B170" t="s">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="C170" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D170" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B171" t="s">
-        <v>187</v>
+        <v>60</v>
       </c>
       <c r="C171" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D171" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B172" t="s">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="C172" t="s">
-        <v>159</v>
+        <v>354</v>
       </c>
       <c r="D172" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B173" t="s">
-        <v>187</v>
+        <v>60</v>
       </c>
       <c r="C173" t="s">
-        <v>159</v>
+        <v>354</v>
       </c>
       <c r="D173" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -6605,310 +6910,310 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
